--- a/BackTest/2019-10-28 BackTest BTG.xlsx
+++ b/BackTest/2019-10-28 BackTest BTG.xlsx
@@ -451,20 +451,14 @@
         <v>9276.666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9265</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>9293.333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>9313.333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>9325</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>9325</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>9325</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>9325</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9325</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>9326.666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -786,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -825,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -864,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -903,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -942,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -981,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1016,15 +944,11 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1055,15 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1098,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1133,16 +1049,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1342,17 +1256,13 @@
         <v>9221.666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9220</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1381,22 +1291,14 @@
         <v>9233.333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9260</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9220</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1424,22 +1326,14 @@
         <v>9245</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>9255</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9220</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1467,17 +1361,13 @@
         <v>9246.666666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>9225</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9225</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1506,22 +1396,14 @@
         <v>9235</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9225</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1549,22 +1431,14 @@
         <v>9240</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1466,14 @@
         <v>9263.333333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9260</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1635,22 +1501,14 @@
         <v>9291.666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9310</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1678,22 +1536,14 @@
         <v>9321.666666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>9360</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1721,22 +1571,14 @@
         <v>9323.333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1852,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2180,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2221,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2385,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2467,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2590,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2877,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3082,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3123,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3164,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3205,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3287,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3328,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3738,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3779,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3820,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3902,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3984,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4025,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4148,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4189,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4230,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4312,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4353,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4394,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4435,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4558,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4599,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4640,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4763,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4804,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4845,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5009,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5091,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5132,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5167,20 +4511,18 @@
         <v>9281.666666666666</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9280</v>
+      </c>
       <c r="K118" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9280</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5208,18 +4550,20 @@
         <v>9280</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9280</v>
+      </c>
       <c r="K119" t="n">
-        <v>9225</v>
+        <v>9280</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -5256,11 +4600,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>9225</v>
+        <v>9280</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -5290,20 +4634,18 @@
         <v>9271.666666666666</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9270</v>
+      </c>
       <c r="K121" t="n">
-        <v>9225</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9270</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5331,18 +4673,20 @@
         <v>9288.333333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9265</v>
+      </c>
       <c r="K122" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -5379,11 +4723,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -5413,18 +4757,20 @@
         <v>9310</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9295</v>
+      </c>
       <c r="K124" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -5454,14 +4800,16 @@
         <v>9313.333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9305</v>
+      </c>
       <c r="K125" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5495,14 +4843,16 @@
         <v>9290</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9340</v>
+      </c>
       <c r="K126" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5536,14 +4886,16 @@
         <v>9290</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9225</v>
+      </c>
       <c r="K127" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5577,14 +4929,16 @@
         <v>9265</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9305</v>
+      </c>
       <c r="K128" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5625,7 +4979,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5666,7 +5020,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5707,7 +5061,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5741,14 +5095,16 @@
         <v>9268.333333333334</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9280</v>
+      </c>
       <c r="K132" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5782,14 +5138,16 @@
         <v>9280</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9265</v>
+      </c>
       <c r="K133" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5823,14 +5181,16 @@
         <v>9283.333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9295</v>
+      </c>
       <c r="K134" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5871,7 +5231,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5912,7 +5272,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5946,16 +5306,14 @@
         <v>9260</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>9260</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5989,16 +5347,14 @@
         <v>9260</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>9250</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6032,16 +5388,14 @@
         <v>9256.666666666666</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>9250</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6084,7 +5438,7 @@
         <v>9250</v>
       </c>
       <c r="K140" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6118,16 +5472,14 @@
         <v>9250</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>9250</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6161,16 +5513,14 @@
         <v>9258.333333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>9175</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6210,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="K143" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6253,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>9275</v>
+        <v>9175</v>
       </c>
       <c r="K144" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6296,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>9180</v>
+        <v>9275</v>
       </c>
       <c r="K145" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6339,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="K146" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6382,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>9270</v>
+        <v>9245</v>
       </c>
       <c r="K147" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6419,16 +5769,14 @@
         <v>9270</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>9255</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6462,16 +5810,14 @@
         <v>9293.333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>9315</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6505,16 +5851,14 @@
         <v>9273.333333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>9210</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6548,16 +5892,14 @@
         <v>9263.333333333334</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>9310</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6591,16 +5933,14 @@
         <v>9248.333333333334</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6634,16 +5974,14 @@
         <v>9248.333333333334</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>9210</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6677,16 +6015,14 @@
         <v>9260</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>9300</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6720,16 +6056,14 @@
         <v>9260</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>9265</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6763,16 +6097,14 @@
         <v>9281.666666666666</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>9275</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6806,16 +6138,14 @@
         <v>9290</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>9295</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6849,16 +6179,14 @@
         <v>9303.333333333334</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>9310</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6892,16 +6220,14 @@
         <v>9315</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6935,16 +6261,14 @@
         <v>9310</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>9310</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6985,7 +6309,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7026,7 +6350,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7067,7 +6391,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7108,7 +6432,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7149,7 +6473,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7190,7 +6514,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7231,7 +6555,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7272,7 +6596,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7313,7 +6637,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7354,7 +6678,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7395,7 +6719,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7436,7 +6760,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7477,7 +6801,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7518,7 +6842,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7559,7 +6883,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7600,7 +6924,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7637,19 +6961,19 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>9225</v>
+        <v>9270</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>1.035650406504065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7678,11 +7002,17 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +7043,17 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7751,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7786,8 +7128,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7821,8 +7169,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7856,8 +7210,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +7251,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7926,8 +7292,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7961,8 +7333,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7996,8 +7374,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8031,8 +7415,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8066,8 +7456,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +7497,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8136,8 +7538,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8171,8 +7579,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8206,8 +7620,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8241,8 +7661,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8276,8 +7702,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +7743,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8346,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8381,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8416,8 +7866,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8451,8 +7907,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8486,8 +7948,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8521,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8556,8 +8030,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8591,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8626,8 +8112,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8661,8 +8153,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8696,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8731,8 +8235,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8766,8 +8276,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8801,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8358,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +8399,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8906,8 +8440,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8941,8 +8481,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8976,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9011,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9081,8 +8645,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9116,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +8727,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9186,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9221,8 +8809,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +8850,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9291,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9326,8 +8932,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9361,8 +8973,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9396,8 +9014,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9431,8 +9055,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +9096,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9501,8 +9137,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9536,8 +9178,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9571,8 +9219,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9606,8 +9260,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9641,8 +9301,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9676,8 +9342,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9711,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9746,8 +9424,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9781,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9816,8 +9506,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9851,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9886,8 +9588,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9921,8 +9629,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9956,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +9711,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +9752,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10061,8 +9793,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10096,8 +9834,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10131,8 +9875,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +9957,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10236,8 +9998,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10271,8 +10039,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10306,8 +10080,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>9270</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest BTG.xlsx
+++ b/BackTest/2019-10-28 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C2" t="n">
         <v>9265</v>
       </c>
-      <c r="C2" t="n">
-        <v>9290</v>
-      </c>
       <c r="D2" t="n">
-        <v>9290</v>
+        <v>9265</v>
       </c>
       <c r="E2" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="F2" t="n">
-        <v>325</v>
+        <v>75.5531</v>
       </c>
       <c r="G2" t="n">
-        <v>9276.666666666666</v>
+        <v>9166.166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9325</v>
+        <v>9265</v>
       </c>
       <c r="C3" t="n">
-        <v>9325</v>
+        <v>9290</v>
       </c>
       <c r="D3" t="n">
-        <v>9325</v>
+        <v>9290</v>
       </c>
       <c r="E3" t="n">
-        <v>9325</v>
+        <v>9265</v>
       </c>
       <c r="F3" t="n">
-        <v>19.5</v>
+        <v>325</v>
       </c>
       <c r="G3" t="n">
-        <v>9293.333333333334</v>
+        <v>9164.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -515,16 +515,16 @@
         <v>9325</v>
       </c>
       <c r="F4" t="n">
-        <v>55.4131</v>
+        <v>19.5</v>
       </c>
       <c r="G4" t="n">
-        <v>9313.333333333334</v>
+        <v>9166.083333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,10 +550,10 @@
         <v>9325</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>55.4131</v>
       </c>
       <c r="G5" t="n">
-        <v>9325</v>
+        <v>9168</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>9325</v>
       </c>
       <c r="F6" t="n">
-        <v>22.8194</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>9325</v>
+        <v>9167.166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -620,16 +620,16 @@
         <v>9325</v>
       </c>
       <c r="F7" t="n">
-        <v>74.8216</v>
+        <v>22.8194</v>
       </c>
       <c r="G7" t="n">
-        <v>9325</v>
+        <v>9168.583333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -655,16 +655,16 @@
         <v>9325</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>74.8216</v>
       </c>
       <c r="G8" t="n">
-        <v>9325</v>
+        <v>9169.833333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9270</v>
+        <v>9325</v>
       </c>
       <c r="C9" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="D9" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="E9" t="n">
-        <v>9270</v>
+        <v>9325</v>
       </c>
       <c r="F9" t="n">
-        <v>76.0749</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>9326.666666666666</v>
+        <v>9171.333333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9325</v>
+        <v>9270</v>
       </c>
       <c r="C10" t="n">
         <v>9330</v>
@@ -722,19 +722,19 @@
         <v>9330</v>
       </c>
       <c r="E10" t="n">
-        <v>9325</v>
+        <v>9270</v>
       </c>
       <c r="F10" t="n">
-        <v>11.0749</v>
+        <v>76.0749</v>
       </c>
       <c r="G10" t="n">
-        <v>9328.333333333334</v>
+        <v>9173.083333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="C11" t="n">
         <v>9330</v>
@@ -757,19 +757,19 @@
         <v>9330</v>
       </c>
       <c r="E11" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>11.0749</v>
       </c>
       <c r="G11" t="n">
-        <v>9330</v>
+        <v>9173.416666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -795,10 +795,10 @@
         <v>9330</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>9330</v>
+        <v>9175</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>9330</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0807</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>9330</v>
+        <v>9176.833333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9370</v>
+        <v>9330</v>
       </c>
       <c r="C14" t="n">
-        <v>9405</v>
+        <v>9330</v>
       </c>
       <c r="D14" t="n">
-        <v>9405</v>
+        <v>9330</v>
       </c>
       <c r="E14" t="n">
-        <v>9370</v>
+        <v>9330</v>
       </c>
       <c r="F14" t="n">
-        <v>132.7075</v>
+        <v>2.0807</v>
       </c>
       <c r="G14" t="n">
-        <v>9355</v>
+        <v>9176.25</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="C15" t="n">
-        <v>9375</v>
+        <v>9405</v>
       </c>
       <c r="D15" t="n">
-        <v>9375</v>
+        <v>9405</v>
       </c>
       <c r="E15" t="n">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>132.7075</v>
       </c>
       <c r="G15" t="n">
-        <v>9370</v>
+        <v>9179.25</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,25 +926,25 @@
         <v>9375</v>
       </c>
       <c r="C16" t="n">
-        <v>9335</v>
+        <v>9375</v>
       </c>
       <c r="D16" t="n">
-        <v>9380</v>
+        <v>9375</v>
       </c>
       <c r="E16" t="n">
-        <v>9330</v>
+        <v>9375</v>
       </c>
       <c r="F16" t="n">
-        <v>71.3061</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>9371.666666666666</v>
+        <v>9181.666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9330</v>
+        <v>9375</v>
       </c>
       <c r="C17" t="n">
-        <v>9385</v>
+        <v>9335</v>
       </c>
       <c r="D17" t="n">
-        <v>9385</v>
+        <v>9380</v>
       </c>
       <c r="E17" t="n">
         <v>9330</v>
       </c>
       <c r="F17" t="n">
-        <v>47.5265</v>
+        <v>71.3061</v>
       </c>
       <c r="G17" t="n">
-        <v>9365</v>
+        <v>9183.416666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -996,19 +996,19 @@
         <v>9330</v>
       </c>
       <c r="C18" t="n">
-        <v>9285</v>
+        <v>9385</v>
       </c>
       <c r="D18" t="n">
+        <v>9385</v>
+      </c>
+      <c r="E18" t="n">
         <v>9330</v>
       </c>
-      <c r="E18" t="n">
-        <v>9285</v>
-      </c>
       <c r="F18" t="n">
-        <v>856.4141</v>
+        <v>47.5265</v>
       </c>
       <c r="G18" t="n">
-        <v>9335</v>
+        <v>9186</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9270</v>
+        <v>9330</v>
       </c>
       <c r="C19" t="n">
-        <v>9385</v>
+        <v>9285</v>
       </c>
       <c r="D19" t="n">
-        <v>9385</v>
+        <v>9330</v>
       </c>
       <c r="E19" t="n">
-        <v>9270</v>
+        <v>9285</v>
       </c>
       <c r="F19" t="n">
-        <v>122.63123201</v>
+        <v>856.4141</v>
       </c>
       <c r="G19" t="n">
-        <v>9351.666666666666</v>
+        <v>9186.416666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9345</v>
+        <v>9270</v>
       </c>
       <c r="C20" t="n">
-        <v>9345</v>
+        <v>9385</v>
       </c>
       <c r="D20" t="n">
-        <v>9345</v>
+        <v>9385</v>
       </c>
       <c r="E20" t="n">
-        <v>9345</v>
+        <v>9270</v>
       </c>
       <c r="F20" t="n">
-        <v>29.7213</v>
+        <v>122.63123201</v>
       </c>
       <c r="G20" t="n">
-        <v>9338.333333333334</v>
+        <v>9188.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9270</v>
+        <v>9345</v>
       </c>
       <c r="C21" t="n">
-        <v>9310</v>
+        <v>9345</v>
       </c>
       <c r="D21" t="n">
-        <v>9310</v>
+        <v>9345</v>
       </c>
       <c r="E21" t="n">
-        <v>9270</v>
+        <v>9345</v>
       </c>
       <c r="F21" t="n">
-        <v>50.9876</v>
+        <v>29.7213</v>
       </c>
       <c r="G21" t="n">
-        <v>9346.666666666666</v>
+        <v>9188.583333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C22" t="n">
         <v>9310</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9220</v>
       </c>
       <c r="D22" t="n">
         <v>9310</v>
       </c>
       <c r="E22" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="F22" t="n">
-        <v>31.2088</v>
+        <v>50.9876</v>
       </c>
       <c r="G22" t="n">
-        <v>9291.666666666666</v>
+        <v>9189.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9225</v>
+        <v>9310</v>
       </c>
       <c r="C23" t="n">
-        <v>9225</v>
+        <v>9220</v>
       </c>
       <c r="D23" t="n">
-        <v>9225</v>
+        <v>9310</v>
       </c>
       <c r="E23" t="n">
-        <v>9225</v>
+        <v>9220</v>
       </c>
       <c r="F23" t="n">
-        <v>32.6505</v>
+        <v>31.2088</v>
       </c>
       <c r="G23" t="n">
-        <v>9251.666666666666</v>
+        <v>9189.166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9220</v>
+        <v>9225</v>
       </c>
       <c r="C24" t="n">
-        <v>9220</v>
+        <v>9225</v>
       </c>
       <c r="D24" t="n">
-        <v>9220</v>
+        <v>9225</v>
       </c>
       <c r="E24" t="n">
-        <v>9220</v>
+        <v>9225</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>32.6505</v>
       </c>
       <c r="G24" t="n">
-        <v>9221.666666666666</v>
+        <v>9187.416666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>9220</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>9221.666666666666</v>
+        <v>9188.083333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9260</v>
+        <v>9220</v>
       </c>
       <c r="C26" t="n">
-        <v>9260</v>
+        <v>9220</v>
       </c>
       <c r="D26" t="n">
-        <v>9260</v>
+        <v>9220</v>
       </c>
       <c r="E26" t="n">
-        <v>9260</v>
+        <v>9220</v>
       </c>
       <c r="F26" t="n">
-        <v>21.5983</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>9233.333333333334</v>
+        <v>9189</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="C27" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="D27" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="E27" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>21.5983</v>
       </c>
       <c r="G27" t="n">
-        <v>9245</v>
+        <v>9192.416666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9225</v>
+        <v>9255</v>
       </c>
       <c r="C28" t="n">
-        <v>9225</v>
+        <v>9255</v>
       </c>
       <c r="D28" t="n">
-        <v>9225</v>
+        <v>9255</v>
       </c>
       <c r="E28" t="n">
-        <v>9225</v>
+        <v>9255</v>
       </c>
       <c r="F28" t="n">
-        <v>5.1302</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>9246.666666666666</v>
+        <v>9192.583333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>9225</v>
       </c>
       <c r="F29" t="n">
-        <v>47.0661</v>
+        <v>5.1302</v>
       </c>
       <c r="G29" t="n">
-        <v>9235</v>
+        <v>9195.333333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9275</v>
+        <v>9225</v>
       </c>
       <c r="C30" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="D30" t="n">
-        <v>9275</v>
+        <v>9225</v>
       </c>
       <c r="E30" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="F30" t="n">
-        <v>100.1</v>
+        <v>47.0661</v>
       </c>
       <c r="G30" t="n">
-        <v>9240</v>
+        <v>9198.083333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="C31" t="n">
-        <v>9295</v>
+        <v>9270</v>
       </c>
       <c r="D31" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="E31" t="n">
-        <v>9260</v>
+        <v>9270</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>100.1</v>
       </c>
       <c r="G31" t="n">
-        <v>9263.333333333334</v>
+        <v>9201.75</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,32 +1483,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9310</v>
+        <v>9260</v>
       </c>
       <c r="C32" t="n">
-        <v>9310</v>
+        <v>9295</v>
       </c>
       <c r="D32" t="n">
-        <v>9310</v>
+        <v>9295</v>
       </c>
       <c r="E32" t="n">
-        <v>9310</v>
+        <v>9260</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9512</v>
+        <v>29</v>
       </c>
       <c r="G32" t="n">
-        <v>9291.666666666666</v>
+        <v>9207.25</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9270</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1524,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9360</v>
+        <v>9310</v>
       </c>
       <c r="C33" t="n">
-        <v>9360</v>
+        <v>9310</v>
       </c>
       <c r="D33" t="n">
-        <v>9360</v>
+        <v>9310</v>
       </c>
       <c r="E33" t="n">
-        <v>9360</v>
+        <v>9310</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>1.9512</v>
       </c>
       <c r="G33" t="n">
-        <v>9321.666666666666</v>
+        <v>9212.916666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9295</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,32 +1565,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9300</v>
+        <v>9360</v>
       </c>
       <c r="C34" t="n">
-        <v>9300</v>
+        <v>9360</v>
       </c>
       <c r="D34" t="n">
-        <v>9300</v>
+        <v>9360</v>
       </c>
       <c r="E34" t="n">
-        <v>9300</v>
+        <v>9360</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>9323.333333333334</v>
+        <v>9220</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9310</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,32 +1606,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9226.083333333334</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>9360</v>
       </c>
-      <c r="C35" t="n">
-        <v>9275</v>
-      </c>
-      <c r="D35" t="n">
-        <v>9385</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9275</v>
-      </c>
-      <c r="F35" t="n">
-        <v>103.55374981</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9311.666666666666</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1647,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9340</v>
+        <v>9360</v>
       </c>
       <c r="C36" t="n">
-        <v>9340</v>
+        <v>9275</v>
       </c>
       <c r="D36" t="n">
-        <v>9340</v>
+        <v>9385</v>
       </c>
       <c r="E36" t="n">
-        <v>9340</v>
+        <v>9275</v>
       </c>
       <c r="F36" t="n">
-        <v>23.5</v>
+        <v>103.55374981</v>
       </c>
       <c r="G36" t="n">
-        <v>9305</v>
+        <v>9230.083333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1672,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9370</v>
+        <v>9340</v>
       </c>
       <c r="C37" t="n">
-        <v>9375</v>
+        <v>9340</v>
       </c>
       <c r="D37" t="n">
-        <v>9375</v>
+        <v>9340</v>
       </c>
       <c r="E37" t="n">
-        <v>9370</v>
+        <v>9340</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>23.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9330</v>
+        <v>9235.166666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1711,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1725,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>9370</v>
+      </c>
+      <c r="C38" t="n">
         <v>9375</v>
       </c>
-      <c r="C38" t="n">
-        <v>9385</v>
-      </c>
       <c r="D38" t="n">
-        <v>9385</v>
+        <v>9375</v>
       </c>
       <c r="E38" t="n">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="F38" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>9366.666666666666</v>
+        <v>9242.416666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1750,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1764,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>9375</v>
+      </c>
+      <c r="C39" t="n">
         <v>9385</v>
       </c>
-      <c r="C39" t="n">
-        <v>9405</v>
-      </c>
       <c r="D39" t="n">
-        <v>9405</v>
+        <v>9385</v>
       </c>
       <c r="E39" t="n">
-        <v>9385</v>
+        <v>9375</v>
       </c>
       <c r="F39" t="n">
-        <v>14.13025019</v>
+        <v>38</v>
       </c>
       <c r="G39" t="n">
-        <v>9388.333333333334</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1789,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1803,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9405</v>
+        <v>9385</v>
       </c>
       <c r="C40" t="n">
         <v>9405</v>
@@ -1772,13 +1812,13 @@
         <v>9405</v>
       </c>
       <c r="E40" t="n">
-        <v>9405</v>
+        <v>9385</v>
       </c>
       <c r="F40" t="n">
-        <v>1.9524</v>
+        <v>14.13025019</v>
       </c>
       <c r="G40" t="n">
-        <v>9398.333333333334</v>
+        <v>9255.916666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1828,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9390</v>
+        <v>9405</v>
       </c>
       <c r="C41" t="n">
-        <v>9390</v>
+        <v>9405</v>
       </c>
       <c r="D41" t="n">
-        <v>9390</v>
+        <v>9405</v>
       </c>
       <c r="E41" t="n">
-        <v>9390</v>
+        <v>9405</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>1.9524</v>
       </c>
       <c r="G41" t="n">
-        <v>9400</v>
+        <v>9263.416666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1867,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1893,10 @@
         <v>9390</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>9395</v>
+        <v>9270.166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1906,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1883,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>9390</v>
+        <v>9276.416666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1945,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +1971,10 @@
         <v>9390</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>9390</v>
+        <v>9282.083333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1984,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1998,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9450</v>
+        <v>9390</v>
       </c>
       <c r="C45" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="D45" t="n">
-        <v>9450</v>
+        <v>9390</v>
       </c>
       <c r="E45" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="F45" t="n">
-        <v>134.5358</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>9388.333333333334</v>
+        <v>9286.916666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2023,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2037,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9385</v>
+        <v>9450</v>
       </c>
       <c r="C46" t="n">
         <v>9385</v>
       </c>
       <c r="D46" t="n">
-        <v>9385</v>
+        <v>9450</v>
       </c>
       <c r="E46" t="n">
         <v>9385</v>
       </c>
       <c r="F46" t="n">
-        <v>49</v>
+        <v>134.5358</v>
       </c>
       <c r="G46" t="n">
-        <v>9386.666666666666</v>
+        <v>9292.416666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2062,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2088,10 @@
         <v>9385</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1548</v>
+        <v>49</v>
       </c>
       <c r="G47" t="n">
-        <v>9385</v>
+        <v>9297.916666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2101,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2118,19 @@
         <v>9385</v>
       </c>
       <c r="C48" t="n">
-        <v>9305</v>
+        <v>9385</v>
       </c>
       <c r="D48" t="n">
         <v>9385</v>
       </c>
       <c r="E48" t="n">
-        <v>9305</v>
+        <v>9385</v>
       </c>
       <c r="F48" t="n">
-        <v>6.354</v>
+        <v>0.1548</v>
       </c>
       <c r="G48" t="n">
-        <v>9358.333333333334</v>
+        <v>9302.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2140,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2154,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9320</v>
+        <v>9385</v>
       </c>
       <c r="C49" t="n">
-        <v>9325</v>
+        <v>9305</v>
       </c>
       <c r="D49" t="n">
-        <v>9325</v>
+        <v>9385</v>
       </c>
       <c r="E49" t="n">
-        <v>9320</v>
+        <v>9305</v>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>6.354</v>
       </c>
       <c r="G49" t="n">
-        <v>9338.333333333334</v>
+        <v>9304.833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2179,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2193,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9300</v>
+        <v>9320</v>
       </c>
       <c r="C50" t="n">
-        <v>9300</v>
+        <v>9325</v>
       </c>
       <c r="D50" t="n">
-        <v>9300</v>
+        <v>9325</v>
       </c>
       <c r="E50" t="n">
-        <v>9300</v>
+        <v>9320</v>
       </c>
       <c r="F50" t="n">
-        <v>110.9127</v>
+        <v>14</v>
       </c>
       <c r="G50" t="n">
-        <v>9310</v>
+        <v>9308.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2218,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2232,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9360</v>
+        <v>9300</v>
       </c>
       <c r="C51" t="n">
-        <v>9360</v>
+        <v>9300</v>
       </c>
       <c r="D51" t="n">
-        <v>9360</v>
+        <v>9300</v>
       </c>
       <c r="E51" t="n">
-        <v>9360</v>
+        <v>9300</v>
       </c>
       <c r="F51" t="n">
-        <v>17.9644</v>
+        <v>110.9127</v>
       </c>
       <c r="G51" t="n">
-        <v>9328.333333333334</v>
+        <v>9308.75</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2257,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9305</v>
+        <v>9360</v>
       </c>
       <c r="C52" t="n">
-        <v>9305</v>
+        <v>9360</v>
       </c>
       <c r="D52" t="n">
-        <v>9305</v>
+        <v>9360</v>
       </c>
       <c r="E52" t="n">
-        <v>9305</v>
+        <v>9360</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>17.9644</v>
       </c>
       <c r="G52" t="n">
-        <v>9321.666666666666</v>
+        <v>9310.25</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2296,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="C53" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="D53" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="E53" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>9331.666666666666</v>
+        <v>9310.916666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2335,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2349,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9340</v>
+        <v>9330</v>
       </c>
       <c r="C54" t="n">
-        <v>9340</v>
+        <v>9330</v>
       </c>
       <c r="D54" t="n">
-        <v>9340</v>
+        <v>9330</v>
       </c>
       <c r="E54" t="n">
-        <v>9340</v>
+        <v>9330</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>9325</v>
+        <v>9313</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2374,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2388,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="C55" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="D55" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="E55" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="F55" t="n">
-        <v>180.2305</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>9335</v>
+        <v>9315.333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2413,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2427,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9305</v>
+        <v>9335</v>
       </c>
       <c r="C56" t="n">
-        <v>9305</v>
+        <v>9335</v>
       </c>
       <c r="D56" t="n">
-        <v>9305</v>
+        <v>9335</v>
       </c>
       <c r="E56" t="n">
-        <v>9305</v>
+        <v>9335</v>
       </c>
       <c r="F56" t="n">
-        <v>3.99</v>
+        <v>180.2305</v>
       </c>
       <c r="G56" t="n">
-        <v>9326.666666666666</v>
+        <v>9317.666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2452,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2466,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9390</v>
+        <v>9305</v>
       </c>
       <c r="C57" t="n">
-        <v>9390</v>
+        <v>9305</v>
       </c>
       <c r="D57" t="n">
-        <v>9390</v>
+        <v>9305</v>
       </c>
       <c r="E57" t="n">
-        <v>9390</v>
+        <v>9305</v>
       </c>
       <c r="F57" t="n">
-        <v>49.2872</v>
+        <v>3.99</v>
       </c>
       <c r="G57" t="n">
-        <v>9343.333333333334</v>
+        <v>9319.416666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2491,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2517,10 @@
         <v>9390</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>49.2872</v>
       </c>
       <c r="G58" t="n">
-        <v>9361.666666666666</v>
+        <v>9321.333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2530,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2556,10 @@
         <v>9390</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>9390</v>
+        <v>9325</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2569,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2583,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9415</v>
+        <v>9390</v>
       </c>
       <c r="C60" t="n">
-        <v>9415</v>
+        <v>9390</v>
       </c>
       <c r="D60" t="n">
-        <v>9415</v>
+        <v>9390</v>
       </c>
       <c r="E60" t="n">
-        <v>9415</v>
+        <v>9390</v>
       </c>
       <c r="F60" t="n">
-        <v>111.832</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>9398.333333333334</v>
+        <v>9326.916666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2608,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2622,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9360</v>
+        <v>9415</v>
       </c>
       <c r="C61" t="n">
-        <v>9360</v>
+        <v>9415</v>
       </c>
       <c r="D61" t="n">
-        <v>9360</v>
+        <v>9415</v>
       </c>
       <c r="E61" t="n">
-        <v>9360</v>
+        <v>9415</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>111.832</v>
       </c>
       <c r="G61" t="n">
-        <v>9388.333333333334</v>
+        <v>9329.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2647,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2661,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9345</v>
+        <v>9360</v>
       </c>
       <c r="C62" t="n">
-        <v>9340</v>
+        <v>9360</v>
       </c>
       <c r="D62" t="n">
-        <v>9345</v>
+        <v>9360</v>
       </c>
       <c r="E62" t="n">
-        <v>9340</v>
+        <v>9360</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>9371.666666666666</v>
+        <v>9330.833333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2686,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2700,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9335</v>
+        <v>9345</v>
       </c>
       <c r="C63" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="D63" t="n">
-        <v>9335</v>
+        <v>9345</v>
       </c>
       <c r="E63" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>9345</v>
+        <v>9331.666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2725,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2742,19 @@
         <v>9335</v>
       </c>
       <c r="C64" t="n">
-        <v>9300</v>
+        <v>9335</v>
       </c>
       <c r="D64" t="n">
         <v>9335</v>
       </c>
       <c r="E64" t="n">
-        <v>9300</v>
+        <v>9335</v>
       </c>
       <c r="F64" t="n">
-        <v>110.6354</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>9325</v>
+        <v>9331.833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2764,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2778,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9355</v>
+        <v>9335</v>
       </c>
       <c r="C65" t="n">
-        <v>9355</v>
+        <v>9300</v>
       </c>
       <c r="D65" t="n">
-        <v>9355</v>
+        <v>9335</v>
       </c>
       <c r="E65" t="n">
-        <v>9355</v>
+        <v>9300</v>
       </c>
       <c r="F65" t="n">
-        <v>28.7708</v>
+        <v>110.6354</v>
       </c>
       <c r="G65" t="n">
-        <v>9330</v>
+        <v>9331.416666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2803,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2817,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9305</v>
+        <v>9355</v>
       </c>
       <c r="C66" t="n">
-        <v>9305</v>
+        <v>9355</v>
       </c>
       <c r="D66" t="n">
-        <v>9305</v>
+        <v>9355</v>
       </c>
       <c r="E66" t="n">
-        <v>9305</v>
+        <v>9355</v>
       </c>
       <c r="F66" t="n">
-        <v>0.93</v>
+        <v>28.7708</v>
       </c>
       <c r="G66" t="n">
-        <v>9320</v>
+        <v>9331.916666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2842,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2856,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9355</v>
+        <v>9305</v>
       </c>
       <c r="C67" t="n">
-        <v>9355</v>
+        <v>9305</v>
       </c>
       <c r="D67" t="n">
-        <v>9355</v>
+        <v>9305</v>
       </c>
       <c r="E67" t="n">
-        <v>9355</v>
+        <v>9305</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0.93</v>
       </c>
       <c r="G67" t="n">
-        <v>9338.333333333334</v>
+        <v>9331.583333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2881,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2907,10 @@
         <v>9355</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1756</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>9338.333333333334</v>
+        <v>9332.083333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2920,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2934,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9360</v>
+        <v>9355</v>
       </c>
       <c r="C69" t="n">
-        <v>9360</v>
+        <v>9355</v>
       </c>
       <c r="D69" t="n">
-        <v>9360</v>
+        <v>9355</v>
       </c>
       <c r="E69" t="n">
-        <v>9360</v>
+        <v>9355</v>
       </c>
       <c r="F69" t="n">
-        <v>16</v>
+        <v>0.1756</v>
       </c>
       <c r="G69" t="n">
-        <v>9356.666666666666</v>
+        <v>9332.583333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2959,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2985,10 @@
         <v>9360</v>
       </c>
       <c r="F70" t="n">
-        <v>110.1755</v>
+        <v>16</v>
       </c>
       <c r="G70" t="n">
-        <v>9358.333333333334</v>
+        <v>9333.083333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2998,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +3024,10 @@
         <v>9360</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>110.1755</v>
       </c>
       <c r="G71" t="n">
-        <v>9360</v>
+        <v>9333.583333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3037,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3063,10 @@
         <v>9360</v>
       </c>
       <c r="F72" t="n">
-        <v>8.0008</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>9360</v>
+        <v>9334.083333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3076,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3102,10 @@
         <v>9360</v>
       </c>
       <c r="F73" t="n">
-        <v>78.0796</v>
+        <v>8.0008</v>
       </c>
       <c r="G73" t="n">
-        <v>9360</v>
+        <v>9334.583333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3115,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3129,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9365</v>
+        <v>9360</v>
       </c>
       <c r="C74" t="n">
-        <v>9365</v>
+        <v>9360</v>
       </c>
       <c r="D74" t="n">
-        <v>9365</v>
+        <v>9360</v>
       </c>
       <c r="E74" t="n">
-        <v>9365</v>
+        <v>9360</v>
       </c>
       <c r="F74" t="n">
-        <v>10.7482</v>
+        <v>78.0796</v>
       </c>
       <c r="G74" t="n">
-        <v>9361.666666666666</v>
+        <v>9335.083333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3154,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3168,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9370</v>
+        <v>9365</v>
       </c>
       <c r="C75" t="n">
-        <v>9375</v>
+        <v>9365</v>
       </c>
       <c r="D75" t="n">
-        <v>9375</v>
+        <v>9365</v>
       </c>
       <c r="E75" t="n">
-        <v>9370</v>
+        <v>9365</v>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>10.7482</v>
       </c>
       <c r="G75" t="n">
-        <v>9366.666666666666</v>
+        <v>9334.416666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3193,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,7 +3207,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="C76" t="n">
         <v>9375</v>
@@ -3032,13 +3216,13 @@
         <v>9375</v>
       </c>
       <c r="E76" t="n">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="F76" t="n">
-        <v>4.6624</v>
+        <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>9371.666666666666</v>
+        <v>9334.416666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3232,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3258,10 @@
         <v>9375</v>
       </c>
       <c r="F77" t="n">
-        <v>41.5321</v>
+        <v>4.6624</v>
       </c>
       <c r="G77" t="n">
-        <v>9375</v>
+        <v>9335.083333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3271,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3285,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9415</v>
+        <v>9375</v>
       </c>
       <c r="C78" t="n">
-        <v>9415</v>
+        <v>9375</v>
       </c>
       <c r="D78" t="n">
-        <v>9415</v>
+        <v>9375</v>
       </c>
       <c r="E78" t="n">
-        <v>9415</v>
+        <v>9375</v>
       </c>
       <c r="F78" t="n">
-        <v>4.3664</v>
+        <v>41.5321</v>
       </c>
       <c r="G78" t="n">
-        <v>9388.333333333334</v>
+        <v>9334.916666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3310,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3131,19 +3327,19 @@
         <v>9415</v>
       </c>
       <c r="C79" t="n">
-        <v>9420</v>
+        <v>9415</v>
       </c>
       <c r="D79" t="n">
-        <v>9420</v>
+        <v>9415</v>
       </c>
       <c r="E79" t="n">
         <v>9415</v>
       </c>
       <c r="F79" t="n">
-        <v>31.0489</v>
+        <v>4.3664</v>
       </c>
       <c r="G79" t="n">
-        <v>9403.333333333334</v>
+        <v>9337.083333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3349,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3366,19 @@
         <v>9415</v>
       </c>
       <c r="C80" t="n">
-        <v>9415</v>
+        <v>9420</v>
       </c>
       <c r="D80" t="n">
-        <v>9415</v>
+        <v>9420</v>
       </c>
       <c r="E80" t="n">
         <v>9415</v>
       </c>
       <c r="F80" t="n">
-        <v>39.59170754</v>
+        <v>31.0489</v>
       </c>
       <c r="G80" t="n">
-        <v>9416.666666666666</v>
+        <v>9337.666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3388,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3201,19 +3405,19 @@
         <v>9415</v>
       </c>
       <c r="C81" t="n">
-        <v>9365</v>
+        <v>9415</v>
       </c>
       <c r="D81" t="n">
         <v>9415</v>
       </c>
       <c r="E81" t="n">
-        <v>9365</v>
+        <v>9415</v>
       </c>
       <c r="F81" t="n">
-        <v>27.9955</v>
+        <v>39.59170754</v>
       </c>
       <c r="G81" t="n">
-        <v>9400</v>
+        <v>9338.833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3427,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3441,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>9415</v>
+      </c>
+      <c r="C82" t="n">
         <v>9365</v>
       </c>
-      <c r="C82" t="n">
-        <v>9330</v>
-      </c>
       <c r="D82" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E82" t="n">
         <v>9365</v>
       </c>
-      <c r="E82" t="n">
-        <v>9330</v>
-      </c>
       <c r="F82" t="n">
-        <v>131.2827</v>
+        <v>27.9955</v>
       </c>
       <c r="G82" t="n">
-        <v>9370</v>
+        <v>9339.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3466,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3480,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9360</v>
+        <v>9365</v>
       </c>
       <c r="C83" t="n">
-        <v>9355</v>
+        <v>9330</v>
       </c>
       <c r="D83" t="n">
-        <v>9360</v>
+        <v>9365</v>
       </c>
       <c r="E83" t="n">
-        <v>9355</v>
+        <v>9330</v>
       </c>
       <c r="F83" t="n">
-        <v>38.9467</v>
+        <v>131.2827</v>
       </c>
       <c r="G83" t="n">
-        <v>9350</v>
+        <v>9341.583333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3505,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3519,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9410</v>
+        <v>9360</v>
       </c>
       <c r="C84" t="n">
-        <v>9410</v>
+        <v>9355</v>
       </c>
       <c r="D84" t="n">
-        <v>9410</v>
+        <v>9360</v>
       </c>
       <c r="E84" t="n">
-        <v>9410</v>
+        <v>9355</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1211</v>
+        <v>38.9467</v>
       </c>
       <c r="G84" t="n">
-        <v>9365</v>
+        <v>9343.75</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3544,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3558,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9355</v>
+        <v>9410</v>
       </c>
       <c r="C85" t="n">
-        <v>9355</v>
+        <v>9410</v>
       </c>
       <c r="D85" t="n">
-        <v>9355</v>
+        <v>9410</v>
       </c>
       <c r="E85" t="n">
-        <v>9355</v>
+        <v>9410</v>
       </c>
       <c r="F85" t="n">
-        <v>2.4222</v>
+        <v>0.1211</v>
       </c>
       <c r="G85" t="n">
-        <v>9373.333333333334</v>
+        <v>9346.916666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3583,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3597,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9395</v>
+        <v>9355</v>
       </c>
       <c r="C86" t="n">
-        <v>9400</v>
+        <v>9355</v>
       </c>
       <c r="D86" t="n">
-        <v>9400</v>
+        <v>9355</v>
       </c>
       <c r="E86" t="n">
-        <v>9395</v>
+        <v>9355</v>
       </c>
       <c r="F86" t="n">
-        <v>0.233</v>
+        <v>2.4222</v>
       </c>
       <c r="G86" t="n">
-        <v>9388.333333333334</v>
+        <v>9349.166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3622,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3636,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9320</v>
+        <v>9395</v>
       </c>
       <c r="C87" t="n">
+        <v>9400</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9400</v>
+      </c>
+      <c r="E87" t="n">
         <v>9395</v>
       </c>
-      <c r="D87" t="n">
-        <v>9395</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9320</v>
-      </c>
       <c r="F87" t="n">
-        <v>0.231</v>
+        <v>0.233</v>
       </c>
       <c r="G87" t="n">
-        <v>9383.333333333334</v>
+        <v>9351.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3661,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3675,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9345</v>
+        <v>9320</v>
       </c>
       <c r="C88" t="n">
-        <v>9335</v>
+        <v>9395</v>
       </c>
       <c r="D88" t="n">
-        <v>9345</v>
+        <v>9395</v>
       </c>
       <c r="E88" t="n">
-        <v>9335</v>
+        <v>9320</v>
       </c>
       <c r="F88" t="n">
-        <v>87.39409999999999</v>
+        <v>0.231</v>
       </c>
       <c r="G88" t="n">
-        <v>9376.666666666666</v>
+        <v>9353.833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3700,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3714,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9335</v>
+        <v>9345</v>
       </c>
       <c r="C89" t="n">
         <v>9335</v>
       </c>
       <c r="D89" t="n">
-        <v>9335</v>
+        <v>9345</v>
       </c>
       <c r="E89" t="n">
         <v>9335</v>
       </c>
       <c r="F89" t="n">
-        <v>6.1356</v>
+        <v>87.39409999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>9355</v>
+        <v>9355.666666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3739,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3753,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9395</v>
+        <v>9335</v>
       </c>
       <c r="C90" t="n">
-        <v>9395</v>
+        <v>9335</v>
       </c>
       <c r="D90" t="n">
-        <v>9395</v>
+        <v>9335</v>
       </c>
       <c r="E90" t="n">
-        <v>9395</v>
+        <v>9335</v>
       </c>
       <c r="F90" t="n">
-        <v>7.9829</v>
+        <v>6.1356</v>
       </c>
       <c r="G90" t="n">
-        <v>9355</v>
+        <v>9357.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3778,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3795,19 @@
         <v>9395</v>
       </c>
       <c r="C91" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="D91" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="E91" t="n">
         <v>9395</v>
       </c>
       <c r="F91" t="n">
-        <v>1.69</v>
+        <v>7.9829</v>
       </c>
       <c r="G91" t="n">
-        <v>9376.666666666666</v>
+        <v>9359.583333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3817,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3831,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C92" t="n">
         <v>9400</v>
-      </c>
-      <c r="C92" t="n">
-        <v>9350</v>
       </c>
       <c r="D92" t="n">
         <v>9400</v>
       </c>
       <c r="E92" t="n">
-        <v>9350</v>
+        <v>9395</v>
       </c>
       <c r="F92" t="n">
-        <v>237.9091</v>
+        <v>1.69</v>
       </c>
       <c r="G92" t="n">
-        <v>9381.666666666666</v>
+        <v>9361.333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3856,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3870,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="C93" t="n">
-        <v>9390</v>
+        <v>9350</v>
       </c>
       <c r="D93" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="E93" t="n">
-        <v>9390</v>
+        <v>9350</v>
       </c>
       <c r="F93" t="n">
-        <v>5.7105</v>
+        <v>237.9091</v>
       </c>
       <c r="G93" t="n">
-        <v>9380</v>
+        <v>9362</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3895,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3909,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9355</v>
+        <v>9390</v>
       </c>
       <c r="C94" t="n">
-        <v>9355</v>
+        <v>9390</v>
       </c>
       <c r="D94" t="n">
-        <v>9355</v>
+        <v>9390</v>
       </c>
       <c r="E94" t="n">
-        <v>9355</v>
+        <v>9390</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3209</v>
+        <v>5.7105</v>
       </c>
       <c r="G94" t="n">
-        <v>9365</v>
+        <v>9362.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3934,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +3960,10 @@
         <v>9355</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5898</v>
+        <v>0.3209</v>
       </c>
       <c r="G95" t="n">
-        <v>9366.666666666666</v>
+        <v>9363.416666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3973,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3987,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9350</v>
+        <v>9355</v>
       </c>
       <c r="C96" t="n">
-        <v>9350</v>
+        <v>9355</v>
       </c>
       <c r="D96" t="n">
-        <v>9350</v>
+        <v>9355</v>
       </c>
       <c r="E96" t="n">
-        <v>9350</v>
+        <v>9355</v>
       </c>
       <c r="F96" t="n">
-        <v>100.1098</v>
+        <v>0.5898</v>
       </c>
       <c r="G96" t="n">
-        <v>9353.333333333334</v>
+        <v>9364.75</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4012,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4026,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9390</v>
+        <v>9350</v>
       </c>
       <c r="C97" t="n">
         <v>9350</v>
       </c>
       <c r="D97" t="n">
-        <v>9390</v>
+        <v>9350</v>
       </c>
       <c r="E97" t="n">
         <v>9350</v>
       </c>
       <c r="F97" t="n">
-        <v>25.6649</v>
+        <v>100.1098</v>
       </c>
       <c r="G97" t="n">
-        <v>9351.666666666666</v>
+        <v>9364.916666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4051,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4065,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9350</v>
+        <v>9390</v>
       </c>
       <c r="C98" t="n">
         <v>9350</v>
       </c>
       <c r="D98" t="n">
-        <v>9350</v>
+        <v>9390</v>
       </c>
       <c r="E98" t="n">
         <v>9350</v>
       </c>
       <c r="F98" t="n">
-        <v>75.5625</v>
+        <v>25.6649</v>
       </c>
       <c r="G98" t="n">
-        <v>9350</v>
+        <v>9364.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4090,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4116,10 @@
         <v>9350</v>
       </c>
       <c r="F99" t="n">
-        <v>11</v>
+        <v>75.5625</v>
       </c>
       <c r="G99" t="n">
-        <v>9350</v>
+        <v>9363.916666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4129,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4143,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9390</v>
+        <v>9350</v>
       </c>
       <c r="C100" t="n">
         <v>9350</v>
       </c>
       <c r="D100" t="n">
-        <v>9405</v>
+        <v>9350</v>
       </c>
       <c r="E100" t="n">
         <v>9350</v>
       </c>
       <c r="F100" t="n">
-        <v>57.076</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>9350</v>
+        <v>9363</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4168,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4182,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9350</v>
+      </c>
+      <c r="D101" t="n">
         <v>9405</v>
       </c>
-      <c r="C101" t="n">
-        <v>9435</v>
-      </c>
-      <c r="D101" t="n">
-        <v>9435</v>
-      </c>
       <c r="E101" t="n">
-        <v>9405</v>
+        <v>9350</v>
       </c>
       <c r="F101" t="n">
-        <v>53.092</v>
+        <v>57.076</v>
       </c>
       <c r="G101" t="n">
-        <v>9378.333333333334</v>
+        <v>9362.083333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4207,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4221,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9350</v>
+        <v>9405</v>
       </c>
       <c r="C102" t="n">
-        <v>9345</v>
+        <v>9435</v>
       </c>
       <c r="D102" t="n">
-        <v>9350</v>
+        <v>9435</v>
       </c>
       <c r="E102" t="n">
-        <v>9345</v>
+        <v>9405</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>53.092</v>
       </c>
       <c r="G102" t="n">
-        <v>9376.666666666666</v>
+        <v>9362.833333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4246,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4260,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C103" t="n">
         <v>9345</v>
       </c>
-      <c r="C103" t="n">
-        <v>9325</v>
-      </c>
       <c r="D103" t="n">
+        <v>9350</v>
+      </c>
+      <c r="E103" t="n">
         <v>9345</v>
       </c>
-      <c r="E103" t="n">
-        <v>9325</v>
-      </c>
       <c r="F103" t="n">
-        <v>57.121</v>
+        <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>9368.333333333334</v>
+        <v>9362.083333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4285,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4299,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9320</v>
+        <v>9345</v>
       </c>
       <c r="C104" t="n">
-        <v>9260</v>
+        <v>9325</v>
       </c>
       <c r="D104" t="n">
-        <v>9320</v>
+        <v>9345</v>
       </c>
       <c r="E104" t="n">
-        <v>9210</v>
+        <v>9325</v>
       </c>
       <c r="F104" t="n">
-        <v>1264.2793</v>
+        <v>57.121</v>
       </c>
       <c r="G104" t="n">
-        <v>9310</v>
+        <v>9361</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4324,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4338,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9260</v>
+        <v>9320</v>
       </c>
       <c r="C105" t="n">
         <v>9260</v>
       </c>
       <c r="D105" t="n">
-        <v>9260</v>
+        <v>9320</v>
       </c>
       <c r="E105" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="F105" t="n">
-        <v>118.1703</v>
+        <v>1264.2793</v>
       </c>
       <c r="G105" t="n">
-        <v>9281.666666666666</v>
+        <v>9358.833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4363,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4377,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9210</v>
+        <v>9260</v>
       </c>
       <c r="C106" t="n">
-        <v>9310</v>
+        <v>9260</v>
       </c>
       <c r="D106" t="n">
-        <v>9310</v>
+        <v>9260</v>
       </c>
       <c r="E106" t="n">
-        <v>9210</v>
+        <v>9230</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2211</v>
+        <v>118.1703</v>
       </c>
       <c r="G106" t="n">
-        <v>9276.666666666666</v>
+        <v>9356.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4402,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4416,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9330</v>
+        <v>9210</v>
       </c>
       <c r="C107" t="n">
-        <v>9330</v>
+        <v>9310</v>
       </c>
       <c r="D107" t="n">
-        <v>9330</v>
+        <v>9310</v>
       </c>
       <c r="E107" t="n">
-        <v>9330</v>
+        <v>9210</v>
       </c>
       <c r="F107" t="n">
-        <v>5.359</v>
+        <v>0.2211</v>
       </c>
       <c r="G107" t="n">
-        <v>9300</v>
+        <v>9355.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4441,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4455,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9315</v>
+        <v>9330</v>
       </c>
       <c r="C108" t="n">
-        <v>9355</v>
+        <v>9330</v>
       </c>
       <c r="D108" t="n">
-        <v>9355</v>
+        <v>9330</v>
       </c>
       <c r="E108" t="n">
-        <v>9315</v>
+        <v>9330</v>
       </c>
       <c r="F108" t="n">
-        <v>183.5</v>
+        <v>5.359</v>
       </c>
       <c r="G108" t="n">
-        <v>9331.666666666666</v>
+        <v>9354.583333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4480,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4494,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9335</v>
+        <v>9315</v>
       </c>
       <c r="C109" t="n">
-        <v>9335</v>
+        <v>9355</v>
       </c>
       <c r="D109" t="n">
-        <v>9335</v>
+        <v>9355</v>
       </c>
       <c r="E109" t="n">
-        <v>9335</v>
+        <v>9315</v>
       </c>
       <c r="F109" t="n">
-        <v>1.4161</v>
+        <v>183.5</v>
       </c>
       <c r="G109" t="n">
-        <v>9340</v>
+        <v>9355.416666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4519,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4225,10 +4545,10 @@
         <v>9335</v>
       </c>
       <c r="F110" t="n">
-        <v>2.5003</v>
+        <v>1.4161</v>
       </c>
       <c r="G110" t="n">
-        <v>9341.666666666666</v>
+        <v>9355.583333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4558,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4572,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9355</v>
+        <v>9335</v>
       </c>
       <c r="C111" t="n">
-        <v>9340</v>
+        <v>9335</v>
       </c>
       <c r="D111" t="n">
-        <v>9355</v>
+        <v>9335</v>
       </c>
       <c r="E111" t="n">
-        <v>9340</v>
+        <v>9335</v>
       </c>
       <c r="F111" t="n">
-        <v>7.9409</v>
+        <v>2.5003</v>
       </c>
       <c r="G111" t="n">
-        <v>9336.666666666666</v>
+        <v>9356.166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4597,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4611,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9300</v>
+        <v>9355</v>
       </c>
       <c r="C112" t="n">
-        <v>9300</v>
+        <v>9340</v>
       </c>
       <c r="D112" t="n">
-        <v>9300</v>
+        <v>9355</v>
       </c>
       <c r="E112" t="n">
-        <v>9300</v>
+        <v>9340</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1006</v>
+        <v>7.9409</v>
       </c>
       <c r="G112" t="n">
-        <v>9325</v>
+        <v>9355.833333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4636,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4650,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="C113" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="D113" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="E113" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="F113" t="n">
-        <v>15.5551</v>
+        <v>0.1006</v>
       </c>
       <c r="G113" t="n">
-        <v>9310</v>
+        <v>9355.75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4675,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,10 +4701,10 @@
         <v>9290</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>15.5551</v>
       </c>
       <c r="G114" t="n">
-        <v>9293.333333333334</v>
+        <v>9355.083333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4714,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4728,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="C115" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="D115" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="E115" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>9288.333333333334</v>
+        <v>9354.25</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4753,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4438,7 +4782,7 @@
         <v>0.1</v>
       </c>
       <c r="G116" t="n">
-        <v>9286.666666666666</v>
+        <v>9353.416666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4792,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4806,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="C117" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="D117" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="E117" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="F117" t="n">
-        <v>14.385</v>
+        <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>9283.333333333334</v>
+        <v>9353.083333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4831,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,24 +4857,24 @@
         <v>9280</v>
       </c>
       <c r="F118" t="n">
-        <v>4.3797</v>
+        <v>14.385</v>
       </c>
       <c r="G118" t="n">
-        <v>9281.666666666666</v>
+        <v>9351.25</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>9280</v>
-      </c>
-      <c r="K118" t="n">
-        <v>9280</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4544,26 +4896,22 @@
         <v>9280</v>
       </c>
       <c r="F119" t="n">
-        <v>61.0724</v>
+        <v>4.3797</v>
       </c>
       <c r="G119" t="n">
-        <v>9280</v>
+        <v>9349.416666666666</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9280</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9280</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4575,22 +4923,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="C120" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D120" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E120" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="F120" t="n">
-        <v>2.169</v>
+        <v>61.0724</v>
       </c>
       <c r="G120" t="n">
-        <v>9276.666666666666</v>
+        <v>9347.583333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4599,12 +4947,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9280</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4616,36 +4962,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="C121" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="D121" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="E121" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="F121" t="n">
-        <v>0.21</v>
+        <v>2.169</v>
       </c>
       <c r="G121" t="n">
-        <v>9271.666666666666</v>
+        <v>9345.166666666666</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9270</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9270</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4655,38 +5001,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9330</v>
+        <v>9265</v>
       </c>
       <c r="C122" t="n">
-        <v>9330</v>
+        <v>9265</v>
       </c>
       <c r="D122" t="n">
-        <v>9330</v>
+        <v>9265</v>
       </c>
       <c r="E122" t="n">
-        <v>9330</v>
+        <v>9265</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1021</v>
+        <v>0.21</v>
       </c>
       <c r="G122" t="n">
-        <v>9288.333333333334</v>
+        <v>9343.583333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>9265</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -4698,22 +5040,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9295</v>
+        <v>9330</v>
       </c>
       <c r="C123" t="n">
-        <v>9295</v>
+        <v>9330</v>
       </c>
       <c r="D123" t="n">
-        <v>9295</v>
+        <v>9330</v>
       </c>
       <c r="E123" t="n">
-        <v>9295</v>
+        <v>9330</v>
       </c>
       <c r="F123" t="n">
-        <v>5.4396</v>
+        <v>0.1021</v>
       </c>
       <c r="G123" t="n">
-        <v>9296.666666666666</v>
+        <v>9343.416666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4722,12 +5064,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4739,38 +5079,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="C124" t="n">
-        <v>9305</v>
+        <v>9295</v>
       </c>
       <c r="D124" t="n">
-        <v>9310</v>
+        <v>9295</v>
       </c>
       <c r="E124" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>5.4396</v>
       </c>
       <c r="G124" t="n">
-        <v>9310</v>
+        <v>9342.75</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4782,35 +5118,31 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C125" t="n">
         <v>9305</v>
       </c>
-      <c r="C125" t="n">
-        <v>9340</v>
-      </c>
       <c r="D125" t="n">
-        <v>9340</v>
+        <v>9310</v>
       </c>
       <c r="E125" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="F125" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>9313.333333333334</v>
+        <v>9342.833333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>9305</v>
-      </c>
-      <c r="K125" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,35 +5157,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>9305</v>
+      </c>
+      <c r="C126" t="n">
         <v>9340</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9225</v>
       </c>
       <c r="D126" t="n">
         <v>9340</v>
       </c>
       <c r="E126" t="n">
-        <v>9225</v>
+        <v>9300</v>
       </c>
       <c r="F126" t="n">
-        <v>102.1</v>
+        <v>42</v>
       </c>
       <c r="G126" t="n">
-        <v>9290</v>
+        <v>9342.583333333334</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9340</v>
-      </c>
-      <c r="K126" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,35 +5196,31 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="C127" t="n">
-        <v>9305</v>
+        <v>9225</v>
       </c>
       <c r="D127" t="n">
-        <v>9335</v>
+        <v>9340</v>
       </c>
       <c r="E127" t="n">
-        <v>9305</v>
+        <v>9225</v>
       </c>
       <c r="F127" t="n">
-        <v>83.7199</v>
+        <v>102.1</v>
       </c>
       <c r="G127" t="n">
-        <v>9290</v>
+        <v>9341.25</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>9225</v>
-      </c>
-      <c r="K127" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,35 +5235,31 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9265</v>
+        <v>9335</v>
       </c>
       <c r="C128" t="n">
-        <v>9265</v>
+        <v>9305</v>
       </c>
       <c r="D128" t="n">
-        <v>9265</v>
+        <v>9335</v>
       </c>
       <c r="E128" t="n">
-        <v>9265</v>
+        <v>9305</v>
       </c>
       <c r="F128" t="n">
-        <v>82.8498</v>
+        <v>83.7199</v>
       </c>
       <c r="G128" t="n">
-        <v>9265</v>
+        <v>9340.416666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>9305</v>
-      </c>
-      <c r="K128" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,22 +5274,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="C129" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="D129" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="E129" t="n">
-        <v>9300</v>
+        <v>9265</v>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>82.8498</v>
       </c>
       <c r="G129" t="n">
-        <v>9291.666666666666</v>
+        <v>9338.916666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4978,9 +5298,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,22 +5313,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9270</v>
+        <v>9305</v>
       </c>
       <c r="C130" t="n">
-        <v>9260</v>
+        <v>9305</v>
       </c>
       <c r="D130" t="n">
-        <v>9270</v>
+        <v>9305</v>
       </c>
       <c r="E130" t="n">
-        <v>9260</v>
+        <v>9300</v>
       </c>
       <c r="F130" t="n">
-        <v>539.3767</v>
+        <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>9276.666666666666</v>
+        <v>9338</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5019,9 +5337,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,22 +5352,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="C131" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="D131" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="E131" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="F131" t="n">
-        <v>100</v>
+        <v>539.3767</v>
       </c>
       <c r="G131" t="n">
-        <v>9281.666666666666</v>
+        <v>9336.333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5060,9 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,35 +5391,31 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9305</v>
+        <v>9280</v>
       </c>
       <c r="C132" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D132" t="n">
-        <v>9305</v>
+        <v>9280</v>
       </c>
       <c r="E132" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="F132" t="n">
-        <v>20.7469</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>9268.333333333334</v>
+        <v>9335</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>9280</v>
-      </c>
-      <c r="K132" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5120,35 +5430,31 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9295</v>
+        <v>9305</v>
       </c>
       <c r="C133" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="D133" t="n">
-        <v>9295</v>
+        <v>9305</v>
       </c>
       <c r="E133" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="F133" t="n">
-        <v>19.7061</v>
+        <v>20.7469</v>
       </c>
       <c r="G133" t="n">
-        <v>9280</v>
+        <v>9333.416666666666</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>9265</v>
-      </c>
-      <c r="K133" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,35 +5469,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9265</v>
+        <v>9295</v>
       </c>
       <c r="C134" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="D134" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="E134" t="n">
-        <v>9250</v>
+        <v>9295</v>
       </c>
       <c r="F134" t="n">
-        <v>108.8546</v>
+        <v>19.7061</v>
       </c>
       <c r="G134" t="n">
-        <v>9283.333333333334</v>
+        <v>9332.333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K134" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,22 +5508,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="C135" t="n">
-        <v>9250</v>
+        <v>9290</v>
       </c>
       <c r="D135" t="n">
-        <v>9250</v>
+        <v>9290</v>
       </c>
       <c r="E135" t="n">
         <v>9250</v>
       </c>
       <c r="F135" t="n">
-        <v>33.1616</v>
+        <v>108.8546</v>
       </c>
       <c r="G135" t="n">
-        <v>9278.333333333334</v>
+        <v>9331.083333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5230,9 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,22 +5547,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="C136" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="D136" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="E136" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="F136" t="n">
-        <v>13.5999</v>
+        <v>33.1616</v>
       </c>
       <c r="G136" t="n">
-        <v>9266.666666666666</v>
+        <v>9329</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5271,9 +5571,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,19 +5589,19 @@
         <v>9260</v>
       </c>
       <c r="C137" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="D137" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="E137" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="F137" t="n">
-        <v>45.4336</v>
+        <v>13.5999</v>
       </c>
       <c r="G137" t="n">
-        <v>9260</v>
+        <v>9327.083333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5312,9 +5610,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5329,22 +5625,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9250</v>
+        <v>9260</v>
       </c>
       <c r="C138" t="n">
-        <v>9250</v>
+        <v>9270</v>
       </c>
       <c r="D138" t="n">
-        <v>9250</v>
+        <v>9270</v>
       </c>
       <c r="E138" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="F138" t="n">
-        <v>23.4169</v>
+        <v>45.4336</v>
       </c>
       <c r="G138" t="n">
-        <v>9260</v>
+        <v>9325.333333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5353,9 +5649,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,10 +5676,10 @@
         <v>9250</v>
       </c>
       <c r="F139" t="n">
-        <v>36.6429</v>
+        <v>23.4169</v>
       </c>
       <c r="G139" t="n">
-        <v>9256.666666666666</v>
+        <v>9322.583333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5394,9 +5688,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,23 +5715,19 @@
         <v>9250</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>36.6429</v>
       </c>
       <c r="G140" t="n">
-        <v>9250</v>
+        <v>9319.75</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,10 +5754,10 @@
         <v>9250</v>
       </c>
       <c r="F141" t="n">
-        <v>19.068</v>
+        <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>9250</v>
+        <v>9317</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,9 +5766,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5495,22 +5781,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9175</v>
+        <v>9250</v>
       </c>
       <c r="C142" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="D142" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="E142" t="n">
-        <v>9175</v>
+        <v>9250</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2192</v>
+        <v>19.068</v>
       </c>
       <c r="G142" t="n">
-        <v>9258.333333333334</v>
+        <v>9315.083333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5519,9 +5805,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,32 +5823,28 @@
         <v>9175</v>
       </c>
       <c r="C143" t="n">
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="D143" t="n">
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="E143" t="n">
         <v>9175</v>
       </c>
       <c r="F143" t="n">
-        <v>2.8354</v>
+        <v>0.2192</v>
       </c>
       <c r="G143" t="n">
-        <v>9233.333333333334</v>
+        <v>9314.166666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K143" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,35 +5859,31 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9275</v>
+        <v>9175</v>
       </c>
       <c r="C144" t="n">
-        <v>9275</v>
+        <v>9175</v>
       </c>
       <c r="D144" t="n">
-        <v>9275</v>
+        <v>9175</v>
       </c>
       <c r="E144" t="n">
-        <v>9275</v>
+        <v>9175</v>
       </c>
       <c r="F144" t="n">
-        <v>50.3055</v>
+        <v>2.8354</v>
       </c>
       <c r="G144" t="n">
-        <v>9241.666666666666</v>
+        <v>9311.166666666666</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>9175</v>
-      </c>
-      <c r="K144" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,35 +5898,31 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9180</v>
+        <v>9275</v>
       </c>
       <c r="C145" t="n">
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="D145" t="n">
-        <v>9180</v>
+        <v>9275</v>
       </c>
       <c r="E145" t="n">
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>50.3055</v>
       </c>
       <c r="G145" t="n">
-        <v>9208.333333333334</v>
+        <v>9308.916666666666</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K145" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,32 +5940,28 @@
         <v>9180</v>
       </c>
       <c r="C146" t="n">
-        <v>9245</v>
+        <v>9175</v>
       </c>
       <c r="D146" t="n">
-        <v>9245</v>
+        <v>9180</v>
       </c>
       <c r="E146" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="F146" t="n">
-        <v>8.180400000000001</v>
+        <v>20</v>
       </c>
       <c r="G146" t="n">
-        <v>9231.666666666666</v>
+        <v>9305.916666666666</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>9175</v>
-      </c>
-      <c r="K146" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,35 +5976,31 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9270</v>
+        <v>9180</v>
       </c>
       <c r="C147" t="n">
-        <v>9270</v>
+        <v>9245</v>
       </c>
       <c r="D147" t="n">
-        <v>9270</v>
+        <v>9245</v>
       </c>
       <c r="E147" t="n">
-        <v>9270</v>
+        <v>9180</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1251</v>
+        <v>8.180400000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>9230</v>
+        <v>9303.333333333334</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>9245</v>
-      </c>
-      <c r="K147" t="n">
-        <v>9270</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,22 +6015,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="C148" t="n">
-        <v>9295</v>
+        <v>9270</v>
       </c>
       <c r="D148" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="E148" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="F148" t="n">
-        <v>290.0496</v>
+        <v>0.1251</v>
       </c>
       <c r="G148" t="n">
-        <v>9270</v>
+        <v>9301.25</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5775,9 +6039,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5792,22 +6054,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9315</v>
+        <v>9255</v>
       </c>
       <c r="C149" t="n">
-        <v>9315</v>
+        <v>9295</v>
       </c>
       <c r="D149" t="n">
-        <v>9315</v>
+        <v>9300</v>
       </c>
       <c r="E149" t="n">
-        <v>9315</v>
+        <v>9255</v>
       </c>
       <c r="F149" t="n">
-        <v>15.5526</v>
+        <v>290.0496</v>
       </c>
       <c r="G149" t="n">
-        <v>9293.333333333334</v>
+        <v>9300.583333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5816,9 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,22 +6093,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9210</v>
+        <v>9315</v>
       </c>
       <c r="C150" t="n">
-        <v>9210</v>
+        <v>9315</v>
       </c>
       <c r="D150" t="n">
-        <v>9210</v>
+        <v>9315</v>
       </c>
       <c r="E150" t="n">
-        <v>9210</v>
+        <v>9315</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>15.5526</v>
       </c>
       <c r="G150" t="n">
-        <v>9273.333333333334</v>
+        <v>9300.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5857,9 +6117,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,22 +6132,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9310</v>
+        <v>9210</v>
       </c>
       <c r="C151" t="n">
-        <v>9265</v>
+        <v>9210</v>
       </c>
       <c r="D151" t="n">
-        <v>9310</v>
+        <v>9210</v>
       </c>
       <c r="E151" t="n">
-        <v>9265</v>
+        <v>9210</v>
       </c>
       <c r="F151" t="n">
-        <v>164.1128</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>9263.333333333334</v>
+        <v>9297.166666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5898,9 +6156,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,22 +6171,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9270</v>
+        <v>9310</v>
       </c>
       <c r="C152" t="n">
-        <v>9270</v>
+        <v>9265</v>
       </c>
       <c r="D152" t="n">
-        <v>9270</v>
+        <v>9310</v>
       </c>
       <c r="E152" t="n">
-        <v>9270</v>
+        <v>9265</v>
       </c>
       <c r="F152" t="n">
-        <v>6.0085</v>
+        <v>164.1128</v>
       </c>
       <c r="G152" t="n">
-        <v>9248.333333333334</v>
+        <v>9294.916666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5939,9 +6195,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5956,22 +6210,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="C153" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="D153" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="E153" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>6.0085</v>
       </c>
       <c r="G153" t="n">
-        <v>9248.333333333334</v>
+        <v>9293.583333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5980,9 +6234,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,22 +6249,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9300</v>
+        <v>9210</v>
       </c>
       <c r="C154" t="n">
-        <v>9300</v>
+        <v>9210</v>
       </c>
       <c r="D154" t="n">
-        <v>9300</v>
+        <v>9210</v>
       </c>
       <c r="E154" t="n">
-        <v>9300</v>
+        <v>9210</v>
       </c>
       <c r="F154" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>9260</v>
+        <v>9290.583333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6021,9 +6273,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,22 +6288,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="C155" t="n">
-        <v>9270</v>
+        <v>9300</v>
       </c>
       <c r="D155" t="n">
-        <v>9270</v>
+        <v>9300</v>
       </c>
       <c r="E155" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="F155" t="n">
-        <v>87.1896</v>
+        <v>1.05</v>
       </c>
       <c r="G155" t="n">
-        <v>9260</v>
+        <v>9289.666666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6062,9 +6312,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6079,22 +6327,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9275</v>
+        <v>9265</v>
       </c>
       <c r="C156" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D156" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E156" t="n">
-        <v>9275</v>
+        <v>9265</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>87.1896</v>
       </c>
       <c r="G156" t="n">
-        <v>9281.666666666666</v>
+        <v>9288.25</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6103,9 +6351,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,22 +6366,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="C157" t="n">
-        <v>9325</v>
+        <v>9275</v>
       </c>
       <c r="D157" t="n">
-        <v>9325</v>
+        <v>9275</v>
       </c>
       <c r="E157" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="F157" t="n">
-        <v>94.37469254</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>9290</v>
+        <v>9287</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6144,9 +6390,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,22 +6405,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9310</v>
+        <v>9295</v>
       </c>
       <c r="C158" t="n">
-        <v>9310</v>
+        <v>9325</v>
       </c>
       <c r="D158" t="n">
-        <v>9310</v>
+        <v>9325</v>
       </c>
       <c r="E158" t="n">
-        <v>9310</v>
+        <v>9295</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>94.37469254</v>
       </c>
       <c r="G158" t="n">
-        <v>9303.333333333334</v>
+        <v>9286.583333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6185,9 +6429,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,22 +6444,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="C159" t="n">
         <v>9310</v>
       </c>
       <c r="D159" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="E159" t="n">
         <v>9310</v>
       </c>
       <c r="F159" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>9315</v>
+        <v>9285.916666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6226,9 +6468,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,22 +6483,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9310</v>
+        <v>9320</v>
       </c>
       <c r="C160" t="n">
         <v>9310</v>
       </c>
       <c r="D160" t="n">
-        <v>9310</v>
+        <v>9320</v>
       </c>
       <c r="E160" t="n">
         <v>9310</v>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G160" t="n">
-        <v>9310</v>
+        <v>9285.25</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6267,9 +6507,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6296,10 +6534,10 @@
         <v>9310</v>
       </c>
       <c r="F161" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G161" t="n">
-        <v>9310</v>
+        <v>9284.583333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6308,9 +6546,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,22 +6561,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="C162" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="D162" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="E162" t="n">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G162" t="n">
-        <v>9313.333333333334</v>
+        <v>9282.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6349,9 +6585,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,19 +6603,19 @@
         <v>9320</v>
       </c>
       <c r="C163" t="n">
-        <v>9305</v>
+        <v>9320</v>
       </c>
       <c r="D163" t="n">
         <v>9320</v>
       </c>
       <c r="E163" t="n">
-        <v>9305</v>
+        <v>9320</v>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>9311.666666666666</v>
+        <v>9282.083333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6390,9 +6624,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6407,22 +6639,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9330</v>
+        <v>9320</v>
       </c>
       <c r="C164" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="D164" t="n">
-        <v>9330</v>
+        <v>9320</v>
       </c>
       <c r="E164" t="n">
-        <v>9330</v>
+        <v>9305</v>
       </c>
       <c r="F164" t="n">
-        <v>15.1251</v>
+        <v>100</v>
       </c>
       <c r="G164" t="n">
-        <v>9318.333333333334</v>
+        <v>9281.75</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6431,9 +6663,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6448,22 +6678,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9335</v>
+        <v>9330</v>
       </c>
       <c r="C165" t="n">
         <v>9330</v>
       </c>
       <c r="D165" t="n">
-        <v>9335</v>
+        <v>9330</v>
       </c>
       <c r="E165" t="n">
         <v>9330</v>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>15.1251</v>
       </c>
       <c r="G165" t="n">
-        <v>9321.666666666666</v>
+        <v>9282.916666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6472,9 +6702,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,22 +6717,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9330</v>
+        <v>9335</v>
       </c>
       <c r="C166" t="n">
         <v>9330</v>
       </c>
       <c r="D166" t="n">
-        <v>9330</v>
+        <v>9335</v>
       </c>
       <c r="E166" t="n">
         <v>9330</v>
       </c>
       <c r="F166" t="n">
-        <v>6.6145</v>
+        <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>9330</v>
+        <v>9284.083333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6513,9 +6741,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,22 +6756,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9325</v>
+        <v>9330</v>
       </c>
       <c r="C167" t="n">
-        <v>9325</v>
+        <v>9330</v>
       </c>
       <c r="D167" t="n">
-        <v>9325</v>
+        <v>9330</v>
       </c>
       <c r="E167" t="n">
-        <v>9325</v>
+        <v>9330</v>
       </c>
       <c r="F167" t="n">
-        <v>30.9105</v>
+        <v>6.6145</v>
       </c>
       <c r="G167" t="n">
-        <v>9328.333333333334</v>
+        <v>9284.416666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6554,9 +6780,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6571,22 +6795,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="C168" t="n">
-        <v>9390</v>
+        <v>9325</v>
       </c>
       <c r="D168" t="n">
-        <v>9390</v>
+        <v>9325</v>
       </c>
       <c r="E168" t="n">
-        <v>9330</v>
+        <v>9325</v>
       </c>
       <c r="F168" t="n">
-        <v>103.5573</v>
+        <v>30.9105</v>
       </c>
       <c r="G168" t="n">
-        <v>9348.333333333334</v>
+        <v>9284.333333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6595,9 +6819,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,22 +6834,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9395</v>
+        <v>9330</v>
       </c>
       <c r="C169" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="D169" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="E169" t="n">
-        <v>9395</v>
+        <v>9330</v>
       </c>
       <c r="F169" t="n">
-        <v>2.9243</v>
+        <v>103.5573</v>
       </c>
       <c r="G169" t="n">
-        <v>9370</v>
+        <v>9284.916666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6636,9 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6665,10 +6885,10 @@
         <v>9395</v>
       </c>
       <c r="F170" t="n">
-        <v>196.0595</v>
+        <v>2.9243</v>
       </c>
       <c r="G170" t="n">
-        <v>9393.333333333334</v>
+        <v>9285.916666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6677,9 +6897,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6694,22 +6912,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="C171" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="D171" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="E171" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="F171" t="n">
-        <v>28</v>
+        <v>196.0595</v>
       </c>
       <c r="G171" t="n">
-        <v>9396.666666666666</v>
+        <v>9286.916666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6718,9 +6936,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,19 +6954,19 @@
         <v>9400</v>
       </c>
       <c r="C172" t="n">
-        <v>9455</v>
+        <v>9400</v>
       </c>
       <c r="D172" t="n">
-        <v>9455</v>
+        <v>9400</v>
       </c>
       <c r="E172" t="n">
         <v>9400</v>
       </c>
       <c r="F172" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G172" t="n">
-        <v>9416.666666666666</v>
+        <v>9287.916666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6759,9 +6975,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,22 +6990,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9455</v>
+        <v>9400</v>
       </c>
       <c r="C173" t="n">
         <v>9455</v>
       </c>
       <c r="D173" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="E173" t="n">
-        <v>9455</v>
+        <v>9400</v>
       </c>
       <c r="F173" t="n">
-        <v>7.7469</v>
+        <v>8</v>
       </c>
       <c r="G173" t="n">
-        <v>9436.666666666666</v>
+        <v>9290.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6800,9 +7014,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6820,19 +7032,19 @@
         <v>9455</v>
       </c>
       <c r="C174" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="D174" t="n">
-        <v>9490</v>
+        <v>9460</v>
       </c>
       <c r="E174" t="n">
         <v>9455</v>
       </c>
       <c r="F174" t="n">
-        <v>144.4433</v>
+        <v>7.7469</v>
       </c>
       <c r="G174" t="n">
-        <v>9466.666666666666</v>
+        <v>9293.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6841,9 +7053,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6858,22 +7068,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C175" t="n">
         <v>9490</v>
       </c>
-      <c r="C175" t="n">
-        <v>9585</v>
-      </c>
       <c r="D175" t="n">
-        <v>9600</v>
+        <v>9490</v>
       </c>
       <c r="E175" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="F175" t="n">
-        <v>550.7057</v>
+        <v>144.4433</v>
       </c>
       <c r="G175" t="n">
-        <v>9510</v>
+        <v>9296.583333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6882,9 +7092,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6899,22 +7107,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C176" t="n">
-        <v>9500</v>
+        <v>9585</v>
       </c>
       <c r="D176" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E176" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F176" t="n">
-        <v>154.5399</v>
+        <v>550.7057</v>
       </c>
       <c r="G176" t="n">
-        <v>9525</v>
+        <v>9301.583333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6923,9 +7131,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,19 +7149,19 @@
         <v>9500</v>
       </c>
       <c r="C177" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="D177" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E177" t="n">
-        <v>9475</v>
+        <v>9500</v>
       </c>
       <c r="F177" t="n">
-        <v>657.739855</v>
+        <v>154.5399</v>
       </c>
       <c r="G177" t="n">
-        <v>9561.666666666666</v>
+        <v>9305.166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6964,9 +7170,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,22 +7185,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9545</v>
+        <v>9500</v>
       </c>
       <c r="C178" t="n">
-        <v>9450</v>
+        <v>9600</v>
       </c>
       <c r="D178" t="n">
-        <v>9545</v>
+        <v>9600</v>
       </c>
       <c r="E178" t="n">
-        <v>9440</v>
+        <v>9475</v>
       </c>
       <c r="F178" t="n">
-        <v>187.3099</v>
+        <v>657.739855</v>
       </c>
       <c r="G178" t="n">
-        <v>9516.666666666666</v>
+        <v>9310.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7005,9 +7209,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,22 +7224,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9440</v>
+        <v>9545</v>
       </c>
       <c r="C179" t="n">
-        <v>9440</v>
+        <v>9450</v>
       </c>
       <c r="D179" t="n">
-        <v>9440</v>
+        <v>9545</v>
       </c>
       <c r="E179" t="n">
         <v>9440</v>
       </c>
       <c r="F179" t="n">
-        <v>17.9213</v>
+        <v>187.3099</v>
       </c>
       <c r="G179" t="n">
-        <v>9496.666666666666</v>
+        <v>9313.333333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7046,9 +7248,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,22 +7263,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9565</v>
+        <v>9440</v>
       </c>
       <c r="C180" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="D180" t="n">
-        <v>9565</v>
+        <v>9440</v>
       </c>
       <c r="E180" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="F180" t="n">
-        <v>33.9067</v>
+        <v>17.9213</v>
       </c>
       <c r="G180" t="n">
-        <v>9448.333333333334</v>
+        <v>9316</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7087,9 +7287,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,22 +7302,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9460</v>
+        <v>9565</v>
       </c>
       <c r="C181" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="D181" t="n">
-        <v>9460</v>
+        <v>9565</v>
       </c>
       <c r="E181" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>33.9067</v>
       </c>
       <c r="G181" t="n">
-        <v>9446.666666666666</v>
+        <v>9319.083333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7128,9 +7326,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,22 +7341,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9560</v>
+        <v>9460</v>
       </c>
       <c r="C182" t="n">
-        <v>9570</v>
+        <v>9445</v>
       </c>
       <c r="D182" t="n">
-        <v>9570</v>
+        <v>9460</v>
       </c>
       <c r="E182" t="n">
-        <v>9560</v>
+        <v>9445</v>
       </c>
       <c r="F182" t="n">
-        <v>52.26926698</v>
+        <v>200</v>
       </c>
       <c r="G182" t="n">
-        <v>9490</v>
+        <v>9322.083333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7169,9 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,7 +7380,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9570</v>
+        <v>9560</v>
       </c>
       <c r="C183" t="n">
         <v>9570</v>
@@ -7195,13 +7389,13 @@
         <v>9570</v>
       </c>
       <c r="E183" t="n">
-        <v>9570</v>
+        <v>9560</v>
       </c>
       <c r="F183" t="n">
-        <v>30.5</v>
+        <v>52.26926698</v>
       </c>
       <c r="G183" t="n">
-        <v>9528.333333333334</v>
+        <v>9326.083333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7210,9 +7404,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,22 +7419,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9585</v>
+        <v>9570</v>
       </c>
       <c r="C184" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="D184" t="n">
-        <v>9600</v>
+        <v>9570</v>
       </c>
       <c r="E184" t="n">
-        <v>9585</v>
+        <v>9570</v>
       </c>
       <c r="F184" t="n">
-        <v>257</v>
+        <v>30.5</v>
       </c>
       <c r="G184" t="n">
-        <v>9580</v>
+        <v>9330.666666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7251,9 +7443,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7268,22 +7458,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9530</v>
+        <v>9585</v>
       </c>
       <c r="C185" t="n">
-        <v>9540</v>
+        <v>9600</v>
       </c>
       <c r="D185" t="n">
         <v>9600</v>
       </c>
       <c r="E185" t="n">
-        <v>9530</v>
+        <v>9585</v>
       </c>
       <c r="F185" t="n">
-        <v>196.7799</v>
+        <v>257</v>
       </c>
       <c r="G185" t="n">
-        <v>9570</v>
+        <v>9335.583333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7292,9 +7482,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,22 +7497,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="C186" t="n">
-        <v>9565</v>
+        <v>9540</v>
       </c>
       <c r="D186" t="n">
         <v>9600</v>
       </c>
       <c r="E186" t="n">
-        <v>9565</v>
+        <v>9530</v>
       </c>
       <c r="F186" t="n">
-        <v>104.14937651</v>
+        <v>196.7799</v>
       </c>
       <c r="G186" t="n">
-        <v>9568.333333333334</v>
+        <v>9338.916666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7333,9 +7521,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,22 +7536,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9565</v>
+        <v>9595</v>
       </c>
       <c r="C187" t="n">
         <v>9565</v>
       </c>
       <c r="D187" t="n">
-        <v>9565</v>
+        <v>9600</v>
       </c>
       <c r="E187" t="n">
         <v>9565</v>
       </c>
       <c r="F187" t="n">
-        <v>70</v>
+        <v>104.14937651</v>
       </c>
       <c r="G187" t="n">
-        <v>9556.666666666666</v>
+        <v>9344.583333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7374,9 +7560,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,10 +7587,10 @@
         <v>9565</v>
       </c>
       <c r="F188" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G188" t="n">
-        <v>9565</v>
+        <v>9348.916666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7415,9 +7599,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,22 +7614,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9595</v>
+        <v>9565</v>
       </c>
       <c r="C189" t="n">
         <v>9565</v>
       </c>
       <c r="D189" t="n">
-        <v>9595</v>
+        <v>9565</v>
       </c>
       <c r="E189" t="n">
         <v>9565</v>
       </c>
       <c r="F189" t="n">
-        <v>82.9692</v>
+        <v>19</v>
       </c>
       <c r="G189" t="n">
-        <v>9565</v>
+        <v>9353.916666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7456,9 +7638,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,22 +7653,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9565</v>
+        <v>9595</v>
       </c>
       <c r="C190" t="n">
         <v>9565</v>
       </c>
       <c r="D190" t="n">
-        <v>9565</v>
+        <v>9595</v>
       </c>
       <c r="E190" t="n">
         <v>9565</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>82.9692</v>
       </c>
       <c r="G190" t="n">
-        <v>9565</v>
+        <v>9358.25</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7497,9 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,19 +7695,19 @@
         <v>9565</v>
       </c>
       <c r="C191" t="n">
-        <v>9520</v>
+        <v>9565</v>
       </c>
       <c r="D191" t="n">
         <v>9565</v>
       </c>
       <c r="E191" t="n">
-        <v>9520</v>
+        <v>9565</v>
       </c>
       <c r="F191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>9550</v>
+        <v>9363.333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7538,9 +7716,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7555,22 +7731,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9530</v>
+        <v>9565</v>
       </c>
       <c r="C192" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="D192" t="n">
-        <v>9530</v>
+        <v>9565</v>
       </c>
       <c r="E192" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="F192" t="n">
-        <v>88.376</v>
+        <v>4</v>
       </c>
       <c r="G192" t="n">
-        <v>9530</v>
+        <v>9367.333333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7579,9 +7755,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,22 +7770,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="C193" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="D193" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="E193" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="F193" t="n">
-        <v>4.8437</v>
+        <v>88.376</v>
       </c>
       <c r="G193" t="n">
-        <v>9535</v>
+        <v>9371.333333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7620,9 +7794,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,19 +7812,19 @@
         <v>9580</v>
       </c>
       <c r="C194" t="n">
-        <v>9585</v>
+        <v>9580</v>
       </c>
       <c r="D194" t="n">
-        <v>9585</v>
+        <v>9580</v>
       </c>
       <c r="E194" t="n">
-        <v>9515</v>
+        <v>9580</v>
       </c>
       <c r="F194" t="n">
-        <v>220.8953</v>
+        <v>4.8437</v>
       </c>
       <c r="G194" t="n">
-        <v>9556.666666666666</v>
+        <v>9376.083333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7661,9 +7833,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,19 +7851,19 @@
         <v>9580</v>
       </c>
       <c r="C195" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D195" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="E195" t="n">
-        <v>9580</v>
+        <v>9515</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1</v>
+        <v>220.8953</v>
       </c>
       <c r="G195" t="n">
-        <v>9581.666666666666</v>
+        <v>9381</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7702,9 +7872,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7731,10 +7899,10 @@
         <v>9580</v>
       </c>
       <c r="F196" t="n">
-        <v>4.5748</v>
+        <v>0.1</v>
       </c>
       <c r="G196" t="n">
-        <v>9581.666666666666</v>
+        <v>9386.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7743,9 +7911,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,10 +7938,10 @@
         <v>9580</v>
       </c>
       <c r="F197" t="n">
-        <v>10.4903</v>
+        <v>4.5748</v>
       </c>
       <c r="G197" t="n">
-        <v>9580</v>
+        <v>9391.833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7784,9 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7801,22 +7965,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9535</v>
+        <v>9580</v>
       </c>
       <c r="C198" t="n">
-        <v>9535</v>
+        <v>9580</v>
       </c>
       <c r="D198" t="n">
-        <v>9535</v>
+        <v>9580</v>
       </c>
       <c r="E198" t="n">
-        <v>9535</v>
+        <v>9580</v>
       </c>
       <c r="F198" t="n">
-        <v>2.0982</v>
+        <v>10.4903</v>
       </c>
       <c r="G198" t="n">
-        <v>9565</v>
+        <v>9397</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7825,9 +7989,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7854,10 +8016,10 @@
         <v>9535</v>
       </c>
       <c r="F199" t="n">
-        <v>47.88</v>
+        <v>2.0982</v>
       </c>
       <c r="G199" t="n">
-        <v>9550</v>
+        <v>9401.75</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7866,9 +8028,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,22 +8043,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9575</v>
+        <v>9535</v>
       </c>
       <c r="C200" t="n">
-        <v>9575</v>
+        <v>9535</v>
       </c>
       <c r="D200" t="n">
-        <v>9575</v>
+        <v>9535</v>
       </c>
       <c r="E200" t="n">
-        <v>9575</v>
+        <v>9535</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3</v>
+        <v>47.88</v>
       </c>
       <c r="G200" t="n">
-        <v>9548.333333333334</v>
+        <v>9406.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7907,9 +8067,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,22 +8082,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9505</v>
+        <v>9575</v>
       </c>
       <c r="C201" t="n">
-        <v>9630</v>
+        <v>9575</v>
       </c>
       <c r="D201" t="n">
-        <v>9630</v>
+        <v>9575</v>
       </c>
       <c r="E201" t="n">
-        <v>9505</v>
+        <v>9575</v>
       </c>
       <c r="F201" t="n">
-        <v>676.9792</v>
+        <v>0.3</v>
       </c>
       <c r="G201" t="n">
-        <v>9580</v>
+        <v>9411.916666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7948,9 +8106,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,22 +8121,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9605</v>
+        <v>9505</v>
       </c>
       <c r="C202" t="n">
-        <v>9605</v>
+        <v>9630</v>
       </c>
       <c r="D202" t="n">
-        <v>9605</v>
+        <v>9630</v>
       </c>
       <c r="E202" t="n">
-        <v>9605</v>
+        <v>9505</v>
       </c>
       <c r="F202" t="n">
-        <v>61.187</v>
+        <v>676.9792</v>
       </c>
       <c r="G202" t="n">
-        <v>9603.333333333334</v>
+        <v>9418.25</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7989,9 +8145,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,19 +8163,19 @@
         <v>9605</v>
       </c>
       <c r="C203" t="n">
-        <v>9535</v>
+        <v>9605</v>
       </c>
       <c r="D203" t="n">
         <v>9605</v>
       </c>
       <c r="E203" t="n">
-        <v>9535</v>
+        <v>9605</v>
       </c>
       <c r="F203" t="n">
-        <v>13.8885</v>
+        <v>61.187</v>
       </c>
       <c r="G203" t="n">
-        <v>9590</v>
+        <v>9423.75</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8030,9 +8184,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,19 +8202,19 @@
         <v>9605</v>
       </c>
       <c r="C204" t="n">
-        <v>9605</v>
+        <v>9535</v>
       </c>
       <c r="D204" t="n">
         <v>9605</v>
       </c>
       <c r="E204" t="n">
-        <v>9605</v>
+        <v>9535</v>
       </c>
       <c r="F204" t="n">
-        <v>18.8396</v>
+        <v>13.8885</v>
       </c>
       <c r="G204" t="n">
-        <v>9581.666666666666</v>
+        <v>9429.75</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8071,9 +8223,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,10 +8250,10 @@
         <v>9605</v>
       </c>
       <c r="F205" t="n">
-        <v>9.370100000000001</v>
+        <v>18.8396</v>
       </c>
       <c r="G205" t="n">
-        <v>9581.666666666666</v>
+        <v>9435.25</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8112,9 +8262,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,7 +8277,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>9540</v>
+        <v>9605</v>
       </c>
       <c r="C206" t="n">
         <v>9605</v>
@@ -8138,13 +8286,13 @@
         <v>9605</v>
       </c>
       <c r="E206" t="n">
-        <v>9540</v>
+        <v>9605</v>
       </c>
       <c r="F206" t="n">
-        <v>203.4165</v>
+        <v>9.370100000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>9605</v>
+        <v>9442.416666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8153,9 +8301,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,22 +8316,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>9600</v>
+        <v>9540</v>
       </c>
       <c r="C207" t="n">
-        <v>9680</v>
+        <v>9605</v>
       </c>
       <c r="D207" t="n">
-        <v>9680</v>
+        <v>9605</v>
       </c>
       <c r="E207" t="n">
-        <v>9600</v>
+        <v>9540</v>
       </c>
       <c r="F207" t="n">
-        <v>257.48732498</v>
+        <v>203.4165</v>
       </c>
       <c r="G207" t="n">
-        <v>9630</v>
+        <v>9448.416666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8194,9 +8340,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,22 +8355,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>9535</v>
+        <v>9600</v>
       </c>
       <c r="C208" t="n">
-        <v>9535</v>
+        <v>9680</v>
       </c>
       <c r="D208" t="n">
-        <v>9535</v>
+        <v>9680</v>
       </c>
       <c r="E208" t="n">
-        <v>9535</v>
+        <v>9600</v>
       </c>
       <c r="F208" t="n">
-        <v>6</v>
+        <v>257.48732498</v>
       </c>
       <c r="G208" t="n">
-        <v>9606.666666666666</v>
+        <v>9455.25</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8235,9 +8379,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,22 +8394,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>9675</v>
+        <v>9535</v>
       </c>
       <c r="C209" t="n">
-        <v>9675</v>
+        <v>9535</v>
       </c>
       <c r="D209" t="n">
-        <v>9675</v>
+        <v>9535</v>
       </c>
       <c r="E209" t="n">
-        <v>9675</v>
+        <v>9535</v>
       </c>
       <c r="F209" t="n">
-        <v>43.009</v>
+        <v>6</v>
       </c>
       <c r="G209" t="n">
-        <v>9630</v>
+        <v>9459.25</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8276,9 +8418,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8293,22 +8433,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="C210" t="n">
-        <v>9680</v>
+        <v>9675</v>
       </c>
       <c r="D210" t="n">
-        <v>9680</v>
+        <v>9675</v>
       </c>
       <c r="E210" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="F210" t="n">
-        <v>81.05119999999999</v>
+        <v>43.009</v>
       </c>
       <c r="G210" t="n">
-        <v>9630</v>
+        <v>9465.25</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8317,9 +8457,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,7 +8472,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9680</v>
+        <v>9605</v>
       </c>
       <c r="C211" t="n">
         <v>9680</v>
@@ -8343,13 +8481,13 @@
         <v>9680</v>
       </c>
       <c r="E211" t="n">
-        <v>9680</v>
+        <v>9605</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9</v>
+        <v>81.05119999999999</v>
       </c>
       <c r="G211" t="n">
-        <v>9678.333333333334</v>
+        <v>9473.083333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8358,9 +8496,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,10 +8523,10 @@
         <v>9680</v>
       </c>
       <c r="F212" t="n">
-        <v>16.2997</v>
+        <v>0.9</v>
       </c>
       <c r="G212" t="n">
-        <v>9680</v>
+        <v>9480</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8399,9 +8535,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,10 +8562,10 @@
         <v>9680</v>
       </c>
       <c r="F213" t="n">
-        <v>1.033</v>
+        <v>16.2997</v>
       </c>
       <c r="G213" t="n">
-        <v>9680</v>
+        <v>9486.833333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8440,9 +8574,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,22 +8589,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9600</v>
+        <v>9680</v>
       </c>
       <c r="C214" t="n">
-        <v>9565</v>
+        <v>9680</v>
       </c>
       <c r="D214" t="n">
-        <v>9600</v>
+        <v>9680</v>
       </c>
       <c r="E214" t="n">
-        <v>9565</v>
+        <v>9680</v>
       </c>
       <c r="F214" t="n">
-        <v>37</v>
+        <v>1.033</v>
       </c>
       <c r="G214" t="n">
-        <v>9641.666666666666</v>
+        <v>9494.666666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8481,9 +8613,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,22 +8628,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9565</v>
+        <v>9600</v>
       </c>
       <c r="C215" t="n">
         <v>9565</v>
       </c>
       <c r="D215" t="n">
-        <v>9565</v>
+        <v>9600</v>
       </c>
       <c r="E215" t="n">
         <v>9565</v>
       </c>
       <c r="F215" t="n">
-        <v>10.2888</v>
+        <v>37</v>
       </c>
       <c r="G215" t="n">
-        <v>9603.333333333334</v>
+        <v>9499.083333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8522,9 +8652,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,10 +8679,10 @@
         <v>9565</v>
       </c>
       <c r="F216" t="n">
-        <v>39.2317</v>
+        <v>10.2888</v>
       </c>
       <c r="G216" t="n">
-        <v>9565</v>
+        <v>9504</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8563,9 +8691,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8592,10 +8718,10 @@
         <v>9565</v>
       </c>
       <c r="F217" t="n">
-        <v>164.1595</v>
+        <v>39.2317</v>
       </c>
       <c r="G217" t="n">
-        <v>9565</v>
+        <v>9508.833333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8604,9 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,22 +8745,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9560</v>
+        <v>9565</v>
       </c>
       <c r="C218" t="n">
-        <v>9520</v>
+        <v>9565</v>
       </c>
       <c r="D218" t="n">
-        <v>9560</v>
+        <v>9565</v>
       </c>
       <c r="E218" t="n">
-        <v>9520</v>
+        <v>9565</v>
       </c>
       <c r="F218" t="n">
-        <v>198</v>
+        <v>164.1595</v>
       </c>
       <c r="G218" t="n">
-        <v>9550</v>
+        <v>9512.833333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8645,9 +8769,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,22 +8784,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>9530</v>
+        <v>9560</v>
       </c>
       <c r="C219" t="n">
-        <v>9530</v>
+        <v>9520</v>
       </c>
       <c r="D219" t="n">
-        <v>9530</v>
+        <v>9560</v>
       </c>
       <c r="E219" t="n">
-        <v>9530</v>
+        <v>9520</v>
       </c>
       <c r="F219" t="n">
-        <v>88.1067</v>
+        <v>198</v>
       </c>
       <c r="G219" t="n">
-        <v>9538.333333333334</v>
+        <v>9516.333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8686,9 +8808,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8703,22 +8823,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9665</v>
+        <v>9530</v>
       </c>
       <c r="C220" t="n">
-        <v>9665</v>
+        <v>9530</v>
       </c>
       <c r="D220" t="n">
-        <v>9665</v>
+        <v>9530</v>
       </c>
       <c r="E220" t="n">
-        <v>9665</v>
+        <v>9530</v>
       </c>
       <c r="F220" t="n">
-        <v>2.3714</v>
+        <v>88.1067</v>
       </c>
       <c r="G220" t="n">
-        <v>9571.666666666666</v>
+        <v>9520</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8727,9 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,22 +8862,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9530</v>
+        <v>9665</v>
       </c>
       <c r="C221" t="n">
-        <v>9530</v>
+        <v>9665</v>
       </c>
       <c r="D221" t="n">
-        <v>9530</v>
+        <v>9665</v>
       </c>
       <c r="E221" t="n">
-        <v>9530</v>
+        <v>9665</v>
       </c>
       <c r="F221" t="n">
-        <v>79.2961</v>
+        <v>2.3714</v>
       </c>
       <c r="G221" t="n">
-        <v>9575</v>
+        <v>9525.916666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8768,9 +8886,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,10 +8913,10 @@
         <v>9530</v>
       </c>
       <c r="F222" t="n">
-        <v>1.4827</v>
+        <v>79.2961</v>
       </c>
       <c r="G222" t="n">
-        <v>9575</v>
+        <v>9529.583333333334</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8809,9 +8925,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8838,10 +8952,10 @@
         <v>9530</v>
       </c>
       <c r="F223" t="n">
-        <v>44.6572</v>
+        <v>1.4827</v>
       </c>
       <c r="G223" t="n">
-        <v>9530</v>
+        <v>9533.083333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8850,9 +8964,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,22 +8979,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="C224" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="D224" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="E224" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="F224" t="n">
-        <v>66.1383</v>
+        <v>44.6572</v>
       </c>
       <c r="G224" t="n">
-        <v>9526.666666666666</v>
+        <v>9536.833333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8891,9 +9003,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8920,10 +9030,10 @@
         <v>9520</v>
       </c>
       <c r="F225" t="n">
-        <v>114.7665</v>
+        <v>66.1383</v>
       </c>
       <c r="G225" t="n">
-        <v>9523.333333333334</v>
+        <v>9540</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8932,9 +9042,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,10 +9069,10 @@
         <v>9520</v>
       </c>
       <c r="F226" t="n">
-        <v>25.5901</v>
+        <v>114.7665</v>
       </c>
       <c r="G226" t="n">
-        <v>9520</v>
+        <v>9543.166666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8973,9 +9081,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,10 +9108,10 @@
         <v>9520</v>
       </c>
       <c r="F227" t="n">
-        <v>2.1893</v>
+        <v>25.5901</v>
       </c>
       <c r="G227" t="n">
-        <v>9520</v>
+        <v>9546.333333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9014,9 +9120,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9043,10 +9147,10 @@
         <v>9520</v>
       </c>
       <c r="F228" t="n">
-        <v>197.728</v>
+        <v>2.1893</v>
       </c>
       <c r="G228" t="n">
-        <v>9520</v>
+        <v>9549.583333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9055,9 +9159,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,19 +9177,19 @@
         <v>9520</v>
       </c>
       <c r="C229" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="D229" t="n">
         <v>9520</v>
       </c>
       <c r="E229" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="F229" t="n">
-        <v>380.5137</v>
+        <v>197.728</v>
       </c>
       <c r="G229" t="n">
-        <v>9518.333333333334</v>
+        <v>9551.75</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9096,9 +9198,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,22 +9213,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="C230" t="n">
         <v>9515</v>
       </c>
       <c r="D230" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="E230" t="n">
         <v>9515</v>
       </c>
       <c r="F230" t="n">
-        <v>95.6998</v>
+        <v>380.5137</v>
       </c>
       <c r="G230" t="n">
-        <v>9516.666666666666</v>
+        <v>9553.75</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9137,9 +9237,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9157,19 +9255,19 @@
         <v>9515</v>
       </c>
       <c r="C231" t="n">
-        <v>9505</v>
+        <v>9515</v>
       </c>
       <c r="D231" t="n">
         <v>9515</v>
       </c>
       <c r="E231" t="n">
-        <v>9505</v>
+        <v>9515</v>
       </c>
       <c r="F231" t="n">
-        <v>231.3508</v>
+        <v>95.6998</v>
       </c>
       <c r="G231" t="n">
-        <v>9511.666666666666</v>
+        <v>9555.75</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9178,9 +9276,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,22 +9291,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C232" t="n">
-        <v>9510</v>
+        <v>9505</v>
       </c>
       <c r="D232" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="E232" t="n">
-        <v>9450</v>
+        <v>9505</v>
       </c>
       <c r="F232" t="n">
-        <v>119.6998</v>
+        <v>231.3508</v>
       </c>
       <c r="G232" t="n">
-        <v>9510</v>
+        <v>9557.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9219,9 +9315,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,22 +9330,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9475</v>
+        <v>9510</v>
       </c>
       <c r="C233" t="n">
-        <v>9450</v>
+        <v>9510</v>
       </c>
       <c r="D233" t="n">
-        <v>9475</v>
+        <v>9510</v>
       </c>
       <c r="E233" t="n">
         <v>9450</v>
       </c>
       <c r="F233" t="n">
-        <v>135.5366</v>
+        <v>119.6998</v>
       </c>
       <c r="G233" t="n">
-        <v>9488.333333333334</v>
+        <v>9558.416666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9260,9 +9354,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,22 +9369,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>9450</v>
+        <v>9475</v>
       </c>
       <c r="C234" t="n">
         <v>9450</v>
       </c>
       <c r="D234" t="n">
-        <v>9450</v>
+        <v>9475</v>
       </c>
       <c r="E234" t="n">
         <v>9450</v>
       </c>
       <c r="F234" t="n">
-        <v>42.3045</v>
+        <v>135.5366</v>
       </c>
       <c r="G234" t="n">
-        <v>9470</v>
+        <v>9558.333333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9301,9 +9393,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,10 +9420,10 @@
         <v>9450</v>
       </c>
       <c r="F235" t="n">
-        <v>13</v>
+        <v>42.3045</v>
       </c>
       <c r="G235" t="n">
-        <v>9450</v>
+        <v>9557.666666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9342,9 +9432,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,19 +9450,19 @@
         <v>9450</v>
       </c>
       <c r="C236" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="D236" t="n">
         <v>9450</v>
       </c>
       <c r="E236" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="F236" t="n">
-        <v>77.6614</v>
+        <v>13</v>
       </c>
       <c r="G236" t="n">
-        <v>9448.333333333334</v>
+        <v>9555.416666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9383,9 +9471,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,22 +9486,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="C237" t="n">
-        <v>9450</v>
+        <v>9445</v>
       </c>
       <c r="D237" t="n">
         <v>9450</v>
       </c>
       <c r="E237" t="n">
-        <v>9370</v>
+        <v>9445</v>
       </c>
       <c r="F237" t="n">
-        <v>528.5889</v>
+        <v>77.6614</v>
       </c>
       <c r="G237" t="n">
-        <v>9448.333333333334</v>
+        <v>9554.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9424,9 +9510,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,22 +9525,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9350</v>
+        <v>9415</v>
       </c>
       <c r="C238" t="n">
-        <v>9350</v>
+        <v>9450</v>
       </c>
       <c r="D238" t="n">
-        <v>9350</v>
+        <v>9450</v>
       </c>
       <c r="E238" t="n">
-        <v>9350</v>
+        <v>9370</v>
       </c>
       <c r="F238" t="n">
-        <v>0.2376</v>
+        <v>528.5889</v>
       </c>
       <c r="G238" t="n">
-        <v>9415</v>
+        <v>9552</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9465,9 +9549,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,10 +9576,10 @@
         <v>9350</v>
       </c>
       <c r="F239" t="n">
-        <v>35.3273</v>
+        <v>0.2376</v>
       </c>
       <c r="G239" t="n">
-        <v>9383.333333333334</v>
+        <v>9550.333333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9506,9 +9588,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,22 +9603,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>9450</v>
+        <v>9350</v>
       </c>
       <c r="C240" t="n">
-        <v>9450</v>
+        <v>9350</v>
       </c>
       <c r="D240" t="n">
-        <v>9450</v>
+        <v>9350</v>
       </c>
       <c r="E240" t="n">
-        <v>9450</v>
+        <v>9350</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>35.3273</v>
       </c>
       <c r="G240" t="n">
-        <v>9383.333333333334</v>
+        <v>9548.833333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9547,9 +9627,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,10 +9654,10 @@
         <v>9450</v>
       </c>
       <c r="F241" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>9416.666666666666</v>
+        <v>9548.75</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9588,9 +9666,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9617,10 +9693,10 @@
         <v>9450</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G242" t="n">
-        <v>9450</v>
+        <v>9548.833333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9629,9 +9705,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,10 +9732,10 @@
         <v>9450</v>
       </c>
       <c r="F243" t="n">
-        <v>8.1915</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
-        <v>9450</v>
+        <v>9546.833333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9670,9 +9744,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,10 +9771,10 @@
         <v>9450</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>8.1915</v>
       </c>
       <c r="G244" t="n">
-        <v>9450</v>
+        <v>9544.833333333334</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9711,9 +9783,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,22 +9798,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="C245" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="D245" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="E245" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="F245" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>9456.666666666666</v>
+        <v>9542.333333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9752,9 +9822,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9781,10 +9849,10 @@
         <v>9470</v>
       </c>
       <c r="F246" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G246" t="n">
-        <v>9463.333333333334</v>
+        <v>9541.166666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9793,9 +9861,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,7 +9882,7 @@
         <v>9470</v>
       </c>
       <c r="D247" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="E247" t="n">
         <v>9470</v>
@@ -9825,7 +9891,7 @@
         <v>14</v>
       </c>
       <c r="G247" t="n">
-        <v>9470</v>
+        <v>9539.583333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9834,9 +9900,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9851,22 +9915,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>9470</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D248" t="n">
         <v>9475</v>
       </c>
-      <c r="C248" t="n">
-        <v>9500</v>
-      </c>
-      <c r="D248" t="n">
-        <v>9500</v>
-      </c>
       <c r="E248" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="F248" t="n">
-        <v>24.7209</v>
+        <v>14</v>
       </c>
       <c r="G248" t="n">
-        <v>9480</v>
+        <v>9538</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9875,9 +9939,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,22 +9954,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C249" t="n">
         <v>9500</v>
       </c>
-      <c r="C249" t="n">
-        <v>9510</v>
-      </c>
       <c r="D249" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="E249" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="F249" t="n">
-        <v>18</v>
+        <v>24.7209</v>
       </c>
       <c r="G249" t="n">
-        <v>9493.333333333334</v>
+        <v>9536.916666666666</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9916,9 +9978,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9933,22 +9993,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="C250" t="n">
-        <v>9450</v>
+        <v>9510</v>
       </c>
       <c r="D250" t="n">
-        <v>9450</v>
+        <v>9510</v>
       </c>
       <c r="E250" t="n">
-        <v>9415</v>
+        <v>9500</v>
       </c>
       <c r="F250" t="n">
-        <v>83.3267</v>
+        <v>18</v>
       </c>
       <c r="G250" t="n">
-        <v>9486.666666666666</v>
+        <v>9536</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9957,9 +10017,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,13 +10041,13 @@
         <v>9450</v>
       </c>
       <c r="E251" t="n">
-        <v>9450</v>
+        <v>9415</v>
       </c>
       <c r="F251" t="n">
-        <v>14</v>
+        <v>83.3267</v>
       </c>
       <c r="G251" t="n">
-        <v>9470</v>
+        <v>9534.083333333334</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9998,9 +10056,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,10 +10083,10 @@
         <v>9450</v>
       </c>
       <c r="F252" t="n">
-        <v>6.211</v>
+        <v>14</v>
       </c>
       <c r="G252" t="n">
-        <v>9450</v>
+        <v>9532.916666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10039,9 +10095,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>9270</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,27 +10122,64 @@
         <v>9450</v>
       </c>
       <c r="F253" t="n">
+        <v>6.211</v>
+      </c>
+      <c r="G253" t="n">
+        <v>9532</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C254" t="n">
+        <v>9450</v>
+      </c>
+      <c r="D254" t="n">
+        <v>9450</v>
+      </c>
+      <c r="E254" t="n">
+        <v>9450</v>
+      </c>
+      <c r="F254" t="n">
         <v>1.3636</v>
       </c>
-      <c r="G253" t="n">
-        <v>9450</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>9270</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="G254" t="n">
+        <v>9529.833333333334</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest BTG.xlsx
+++ b/BackTest/2019-10-28 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>915.9875455</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1507,14 +1507,10 @@
         <v>-126.3374544999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8935</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1544,19 +1540,11 @@
         <v>-126.3374544999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9035</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8935</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1588,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>8935</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1606,10 @@
         <v>-76.17515449999991</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8940</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1664,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>8940</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1703,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>8940</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1705,10 @@
         <v>-38.39195449999991</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8955</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1776,19 +1738,11 @@
         <v>79.74964550000009</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8985</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8955</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1817,19 +1771,11 @@
         <v>166.5141455000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8955</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1858,14 +1804,10 @@
         <v>349.4810455000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9050</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1898,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1937,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2662,7 @@
         <v>732.1688455</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3326,7 +3256,7 @@
         <v>37.41477751000004</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3623,7 +3553,7 @@
         <v>96.41222770000005</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3755,7 +3685,7 @@
         <v>143.54247789</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3953,7 +3883,7 @@
         <v>9.006677890000049</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3986,7 +3916,7 @@
         <v>2.652677890000048</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4019,7 +3949,7 @@
         <v>16.65267789000005</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4052,7 +3982,7 @@
         <v>-94.26002210999995</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4085,7 +4015,7 @@
         <v>-76.29562210999995</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4118,7 +4048,7 @@
         <v>-80.29562210999995</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4151,7 +4081,7 @@
         <v>-76.29562210999995</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4184,7 +4114,7 @@
         <v>-68.29562210999995</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4217,7 +4147,7 @@
         <v>-248.52612211</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4349,7 +4279,7 @@
         <v>-203.22892211</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4382,7 +4312,7 @@
         <v>-91.39692210999999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4415,7 +4345,7 @@
         <v>-92.39692210999999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4448,7 +4378,7 @@
         <v>-110.39692211</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4481,7 +4411,7 @@
         <v>-120.39692211</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4514,7 +4444,7 @@
         <v>-231.03232211</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4646,7 +4576,7 @@
         <v>-201.19152211</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5009,7 +4939,7 @@
         <v>-109.02802211</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5042,7 +4972,7 @@
         <v>-148.61972965</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5075,7 +5005,7 @@
         <v>-176.61522965</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5108,7 +5038,7 @@
         <v>-307.89792965</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5141,7 +5071,7 @@
         <v>-268.95122965</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5174,7 +5104,7 @@
         <v>-268.83012965</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5207,7 +5137,7 @@
         <v>-271.25232965</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5240,7 +5170,7 @@
         <v>-271.01932965</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5867,7 +5797,7 @@
         <v>-1954.90912965</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7055,10 +6985,14 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J200" t="n">
+        <v>9250</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
@@ -7091,8 +7025,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7121,11 +7061,19 @@
         <v>-2355.82462965</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J202" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +7102,19 @@
         <v>-2305.51912965</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9175</v>
+      </c>
+      <c r="J203" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7190,8 +7146,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +7182,19 @@
         <v>-2317.33872965</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>9175</v>
+      </c>
+      <c r="J205" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7253,15 +7223,19 @@
         <v>-2317.213629649999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>9245</v>
       </c>
       <c r="J206" t="n">
-        <v>9245</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+        <v>9250</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7290,17 +7264,17 @@
         <v>-2027.164029649999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>9270</v>
       </c>
       <c r="J207" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7331,15 +7305,17 @@
         <v>-2011.611429649999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>9295</v>
+      </c>
       <c r="J208" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -7370,11 +7346,19 @@
         <v>-2013.611429649999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>9315</v>
+      </c>
+      <c r="J209" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7403,11 +7387,19 @@
         <v>-1849.498629649999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>9210</v>
+      </c>
+      <c r="J210" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +7428,19 @@
         <v>-1843.490129649999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>9265</v>
+      </c>
+      <c r="J211" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +7469,19 @@
         <v>-1844.490129649999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>9270</v>
+      </c>
+      <c r="J212" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7505,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7535,15 +7549,15 @@
         <v>-1930.629729649999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>9300</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>9250</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7577,7 +7591,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>9250</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,10 +7627,14 @@
         <v>-1835.255037109999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J216" t="n">
+        <v>9250</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,10 +7668,14 @@
         <v>-1837.255037109999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>9325</v>
+      </c>
+      <c r="J217" t="n">
+        <v>9250</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,10 +7709,14 @@
         <v>-1837.255037109999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J218" t="n">
+        <v>9250</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,10 +7750,14 @@
         <v>-1837.255037109999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J219" t="n">
+        <v>9250</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,10 +7791,14 @@
         <v>-1837.255037109999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J220" t="n">
+        <v>9250</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,10 +7832,14 @@
         <v>-1836.255037109999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J221" t="n">
+        <v>9250</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,12 +7873,14 @@
         <v>-1936.255037109999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>9320</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>9250</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,10 +7914,14 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>9305</v>
+      </c>
+      <c r="J223" t="n">
+        <v>9250</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7909,10 +7955,14 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J224" t="n">
+        <v>9250</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7946,10 +7996,14 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J225" t="n">
+        <v>9250</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7983,10 +8037,14 @@
         <v>-1952.040437109999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J226" t="n">
+        <v>9250</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,10 +8078,14 @@
         <v>-1848.483137109999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>9325</v>
+      </c>
+      <c r="J227" t="n">
+        <v>9250</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,10 +8119,14 @@
         <v>-1845.558837109999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>9390</v>
+      </c>
+      <c r="J228" t="n">
+        <v>9250</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,10 +8160,14 @@
         <v>-1845.558837109999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>9395</v>
+      </c>
+      <c r="J229" t="n">
+        <v>9250</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,1236 +8201,1470 @@
         <v>-1817.558837109999</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>9395</v>
+      </c>
+      <c r="J230" t="n">
+        <v>9250</v>
+      </c>
       <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D231" t="n">
+        <v>9455</v>
+      </c>
+      <c r="E231" t="n">
+        <v>9400</v>
+      </c>
+      <c r="F231" t="n">
+        <v>8</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1809.558837109999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>9400</v>
+      </c>
+      <c r="J231" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C232" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E232" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F232" t="n">
+        <v>7.7469</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1809.558837109999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9455</v>
+      </c>
+      <c r="J232" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D233" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E233" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F233" t="n">
+        <v>144.4433</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1665.115537109999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>9455</v>
+      </c>
+      <c r="J233" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C234" t="n">
+        <v>9585</v>
+      </c>
+      <c r="D234" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E234" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F234" t="n">
+        <v>550.7057</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1114.409837109999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F235" t="n">
+        <v>154.5399</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1268.949737109999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C236" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9475</v>
+      </c>
+      <c r="F236" t="n">
+        <v>657.739855</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-611.2098821099994</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C237" t="n">
+        <v>9450</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9440</v>
+      </c>
+      <c r="F237" t="n">
+        <v>187.3099</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-798.5197821099994</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C238" t="n">
+        <v>9440</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9440</v>
+      </c>
+      <c r="E238" t="n">
+        <v>9440</v>
+      </c>
+      <c r="F238" t="n">
+        <v>17.9213</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-816.4410821099993</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C239" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D239" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F239" t="n">
+        <v>33.9067</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-782.5343821099993</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C240" t="n">
+        <v>9445</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E240" t="n">
+        <v>9445</v>
+      </c>
+      <c r="F240" t="n">
+        <v>200</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-982.5343821099993</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C241" t="n">
+        <v>9570</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E241" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F241" t="n">
+        <v>52.26926698</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-930.2651151299993</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C242" t="n">
+        <v>9570</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E242" t="n">
+        <v>9570</v>
+      </c>
+      <c r="F242" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-930.2651151299993</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C243" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E243" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F243" t="n">
+        <v>257</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-673.2651151299993</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E244" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F244" t="n">
+        <v>196.7799</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-870.0450151299993</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C245" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D245" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E245" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F245" t="n">
+        <v>104.14937651</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-765.8956386199993</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C246" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D246" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E246" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F246" t="n">
+        <v>70</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-765.8956386199993</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C247" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D247" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E247" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F247" t="n">
+        <v>19</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-765.8956386199993</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D248" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E248" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F248" t="n">
+        <v>82.9692</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-765.8956386199993</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C249" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D249" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E249" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-765.8956386199993</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C250" t="n">
+        <v>9520</v>
+      </c>
+      <c r="D250" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E250" t="n">
+        <v>9520</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-769.8956386199993</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C251" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D251" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E251" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F251" t="n">
+        <v>88.376</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-858.2716386199993</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D252" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E252" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4.8437</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-853.4279386199993</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C253" t="n">
+        <v>9585</v>
+      </c>
+      <c r="D253" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E253" t="n">
+        <v>9515</v>
+      </c>
+      <c r="F253" t="n">
+        <v>220.8953</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-632.5326386199993</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C254" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D254" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E254" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-632.6326386199993</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C255" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D255" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F255" t="n">
+        <v>4.5748</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-632.6326386199993</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C256" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D256" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E256" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F256" t="n">
+        <v>10.4903</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-632.6326386199993</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D257" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E257" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2.0982</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-634.7308386199993</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C258" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D258" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E258" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F258" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-634.7308386199993</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C259" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-634.4308386199993</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C260" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D260" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E260" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F260" t="n">
+        <v>676.9792</v>
+      </c>
+      <c r="G260" t="n">
+        <v>42.54836138000064</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C261" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D261" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E261" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F261" t="n">
+        <v>61.187</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-18.63863861999936</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C262" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D262" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E262" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F262" t="n">
+        <v>13.8885</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-32.52713861999936</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C263" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D263" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E263" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F263" t="n">
+        <v>18.8396</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-13.68753861999935</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D264" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E264" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F264" t="n">
+        <v>9.370100000000001</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-13.68753861999935</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C265" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D265" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E265" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F265" t="n">
+        <v>203.4165</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-13.68753861999935</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C266" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E266" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F266" t="n">
+        <v>257.48732498</v>
+      </c>
+      <c r="G266" t="n">
+        <v>243.7997863600006</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C267" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D267" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E267" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F267" t="n">
+        <v>6</v>
+      </c>
+      <c r="G267" t="n">
+        <v>237.7997863600006</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>9250</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C231" t="n">
-        <v>9455</v>
-      </c>
-      <c r="D231" t="n">
-        <v>9455</v>
-      </c>
-      <c r="E231" t="n">
-        <v>9400</v>
-      </c>
-      <c r="F231" t="n">
-        <v>8</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1809.558837109999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>9455</v>
-      </c>
-      <c r="C232" t="n">
-        <v>9455</v>
-      </c>
-      <c r="D232" t="n">
-        <v>9460</v>
-      </c>
-      <c r="E232" t="n">
-        <v>9455</v>
-      </c>
-      <c r="F232" t="n">
-        <v>7.7469</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1809.558837109999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>9455</v>
-      </c>
-      <c r="C233" t="n">
-        <v>9490</v>
-      </c>
-      <c r="D233" t="n">
-        <v>9490</v>
-      </c>
-      <c r="E233" t="n">
-        <v>9455</v>
-      </c>
-      <c r="F233" t="n">
-        <v>144.4433</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1665.115537109999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>9490</v>
-      </c>
-      <c r="C234" t="n">
-        <v>9585</v>
-      </c>
-      <c r="D234" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E234" t="n">
-        <v>9490</v>
-      </c>
-      <c r="F234" t="n">
-        <v>550.7057</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1114.409837109999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>3</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>9500</v>
-      </c>
-      <c r="C235" t="n">
-        <v>9500</v>
-      </c>
-      <c r="D235" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E235" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F235" t="n">
-        <v>154.5399</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1268.949737109999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>3</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>9500</v>
-      </c>
-      <c r="C236" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D236" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E236" t="n">
-        <v>9475</v>
-      </c>
-      <c r="F236" t="n">
-        <v>657.739855</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-611.2098821099994</v>
-      </c>
-      <c r="H236" t="n">
-        <v>3</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>9545</v>
-      </c>
-      <c r="C237" t="n">
-        <v>9450</v>
-      </c>
-      <c r="D237" t="n">
-        <v>9545</v>
-      </c>
-      <c r="E237" t="n">
-        <v>9440</v>
-      </c>
-      <c r="F237" t="n">
-        <v>187.3099</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-798.5197821099994</v>
-      </c>
-      <c r="H237" t="n">
-        <v>3</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>9440</v>
-      </c>
-      <c r="C238" t="n">
-        <v>9440</v>
-      </c>
-      <c r="D238" t="n">
-        <v>9440</v>
-      </c>
-      <c r="E238" t="n">
-        <v>9440</v>
-      </c>
-      <c r="F238" t="n">
-        <v>17.9213</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-816.4410821099993</v>
-      </c>
-      <c r="H238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C239" t="n">
-        <v>9455</v>
-      </c>
-      <c r="D239" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E239" t="n">
-        <v>9455</v>
-      </c>
-      <c r="F239" t="n">
-        <v>33.9067</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-782.5343821099993</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>9460</v>
-      </c>
-      <c r="C240" t="n">
-        <v>9445</v>
-      </c>
-      <c r="D240" t="n">
-        <v>9460</v>
-      </c>
-      <c r="E240" t="n">
-        <v>9445</v>
-      </c>
-      <c r="F240" t="n">
-        <v>200</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-982.5343821099993</v>
-      </c>
-      <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C241" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D241" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E241" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F241" t="n">
-        <v>52.26926698</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-930.2651151299993</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C242" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D242" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E242" t="n">
-        <v>9570</v>
-      </c>
-      <c r="F242" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-930.2651151299993</v>
-      </c>
-      <c r="H242" t="n">
-        <v>3</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C243" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D243" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E243" t="n">
-        <v>9585</v>
-      </c>
-      <c r="F243" t="n">
-        <v>257</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-673.2651151299993</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C244" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D244" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E244" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F244" t="n">
-        <v>196.7799</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-870.0450151299993</v>
-      </c>
-      <c r="H244" t="n">
-        <v>3</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C245" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D245" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E245" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F245" t="n">
-        <v>104.14937651</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-765.8956386199993</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C246" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D246" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E246" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F246" t="n">
-        <v>70</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-765.8956386199993</v>
-      </c>
-      <c r="H246" t="n">
-        <v>3</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C247" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D247" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E247" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F247" t="n">
-        <v>19</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-765.8956386199993</v>
-      </c>
-      <c r="H247" t="n">
-        <v>3</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C248" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D248" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E248" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F248" t="n">
-        <v>82.9692</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-765.8956386199993</v>
-      </c>
-      <c r="H248" t="n">
-        <v>3</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C249" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D249" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E249" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-765.8956386199993</v>
-      </c>
-      <c r="H249" t="n">
-        <v>3</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C250" t="n">
-        <v>9520</v>
-      </c>
-      <c r="D250" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E250" t="n">
-        <v>9520</v>
-      </c>
-      <c r="F250" t="n">
-        <v>4</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-769.8956386199993</v>
-      </c>
-      <c r="H250" t="n">
-        <v>3</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C251" t="n">
-        <v>9505</v>
-      </c>
-      <c r="D251" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E251" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F251" t="n">
-        <v>88.376</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-858.2716386199993</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C252" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D252" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E252" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F252" t="n">
-        <v>4.8437</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-853.4279386199993</v>
-      </c>
-      <c r="H252" t="n">
-        <v>3</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C253" t="n">
-        <v>9585</v>
-      </c>
-      <c r="D253" t="n">
-        <v>9585</v>
-      </c>
-      <c r="E253" t="n">
-        <v>9515</v>
-      </c>
-      <c r="F253" t="n">
-        <v>220.8953</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-632.5326386199993</v>
-      </c>
-      <c r="H253" t="n">
-        <v>3</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C254" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D254" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E254" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-632.6326386199993</v>
-      </c>
-      <c r="H254" t="n">
-        <v>3</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C255" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D255" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E255" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F255" t="n">
-        <v>4.5748</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-632.6326386199993</v>
-      </c>
-      <c r="H255" t="n">
-        <v>3</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C256" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D256" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E256" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F256" t="n">
-        <v>10.4903</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-632.6326386199993</v>
-      </c>
-      <c r="H256" t="n">
-        <v>3</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C257" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D257" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E257" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F257" t="n">
-        <v>2.0982</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-634.7308386199993</v>
-      </c>
-      <c r="H257" t="n">
-        <v>3</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C258" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D258" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E258" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F258" t="n">
-        <v>47.88</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-634.7308386199993</v>
-      </c>
-      <c r="H258" t="n">
-        <v>3</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C259" t="n">
-        <v>9575</v>
-      </c>
-      <c r="D259" t="n">
-        <v>9575</v>
-      </c>
-      <c r="E259" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-634.4308386199993</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>9505</v>
-      </c>
-      <c r="C260" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D260" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E260" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F260" t="n">
-        <v>676.9792</v>
-      </c>
-      <c r="G260" t="n">
-        <v>42.54836138000064</v>
-      </c>
-      <c r="H260" t="n">
-        <v>3</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C261" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D261" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E261" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F261" t="n">
-        <v>61.187</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-18.63863861999936</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C262" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D262" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E262" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F262" t="n">
-        <v>13.8885</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-32.52713861999936</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C263" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D263" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E263" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F263" t="n">
-        <v>18.8396</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-13.68753861999935</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C264" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D264" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E264" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F264" t="n">
-        <v>9.370100000000001</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-13.68753861999935</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C265" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D265" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E265" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F265" t="n">
-        <v>203.4165</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-13.68753861999935</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C266" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D266" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E266" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F266" t="n">
-        <v>257.48732498</v>
-      </c>
-      <c r="G266" t="n">
-        <v>243.7997863600006</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C267" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D267" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E267" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F267" t="n">
-        <v>6</v>
-      </c>
-      <c r="G267" t="n">
-        <v>237.7997863600006</v>
-      </c>
-      <c r="H267" t="n">
-        <v>3</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
-        <v>1</v>
+        <v>1.025810810810811</v>
       </c>
       <c r="M267" t="inlineStr"/>
     </row>
@@ -9387,7 +9691,7 @@
         <v>280.8087863600006</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9420,7 +9724,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9453,7 +9757,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9486,7 +9790,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9519,7 +9823,7 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9552,7 +9856,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9585,7 +9889,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9618,7 +9922,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9651,7 +9955,7 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9684,7 +9988,7 @@
         <v>126.8599863600006</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9717,7 +10021,7 @@
         <v>214.9666863600006</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9750,7 +10054,7 @@
         <v>217.3380863600006</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9783,7 +10087,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9816,7 +10120,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9849,7 +10153,7 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9882,7 +10186,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9915,7 +10219,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9948,7 +10252,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9981,7 +10285,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10014,7 +10318,7 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10047,7 +10351,7 @@
         <v>-308.6100136399994</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10080,7 +10384,7 @@
         <v>-308.6100136399994</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10113,7 +10417,7 @@
         <v>-539.9608136399993</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10146,7 +10450,7 @@
         <v>-420.2610136399993</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10179,7 +10483,7 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10212,7 +10516,7 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10245,7 +10549,7 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10278,7 +10582,7 @@
         <v>-633.4590136399993</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10311,7 +10615,7 @@
         <v>-104.8701136399993</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10344,7 +10648,7 @@
         <v>-105.1077136399993</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10377,7 +10681,7 @@
         <v>-105.1077136399993</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10410,7 +10714,7 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10443,7 +10747,7 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10476,7 +10780,7 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10509,7 +10813,7 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10542,7 +10846,7 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10575,7 +10879,7 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10608,7 +10912,7 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10641,7 +10945,7 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10674,7 +10978,7 @@
         <v>-53.38681363999932</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10707,7 +11011,7 @@
         <v>-35.38681363999932</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10740,7 +11044,7 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10773,7 +11077,7 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10806,7 +11110,7 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10839,7 +11143,7 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10872,7 +11176,7 @@
         <v>-114.7135136399993</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10905,7 +11209,7 @@
         <v>-128.6925136399993</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10938,7 +11242,7 @@
         <v>-98.69251363999933</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10971,7 +11275,7 @@
         <v>-113.6364136399993</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11004,7 +11308,7 @@
         <v>-699.5307136399994</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11037,7 +11341,7 @@
         <v>-684.6242136399993</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11070,7 +11374,7 @@
         <v>-685.6021136399993</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11103,7 +11407,7 @@
         <v>-685.1196136399993</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11136,7 +11440,7 @@
         <v>-744.7690136399993</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11180,6 +11484,6 @@
       <c r="M322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest BTG.xlsx
+++ b/BackTest/2019-10-28 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1091.2770455</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1089.6992455</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1089.8382455</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1084.9519455</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1089.8296455</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1032.2036455</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>962.4577455</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>965.1115455</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>959.7061455</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>909.8346455000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>930.6096455000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>928.6096455000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>76.59257751000004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25.60497751000004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5.60382248999996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27.04667751000004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>42.64497751000004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>42.54497751000004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>37.41477751000004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -6985,14 +6985,10 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>9250</v>
-      </c>
-      <c r="J200" t="n">
-        <v>9250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
@@ -7025,1072 +7021,934 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.8354</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2355.82462965</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9275</v>
+      </c>
+      <c r="D203" t="n">
+        <v>9275</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9275</v>
+      </c>
+      <c r="F203" t="n">
+        <v>50.3055</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2305.51912965</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F204" t="n">
+        <v>20</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2325.51912965</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9245</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8.180400000000001</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2317.33872965</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1251</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2317.213629649999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F207" t="n">
+        <v>290.0496</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2027.164029649999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9315</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9315</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9315</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9315</v>
+      </c>
+      <c r="F208" t="n">
+        <v>15.5526</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2011.611429649999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2013.611429649999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F210" t="n">
+        <v>164.1128</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1849.498629649999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6.0085</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1843.490129649999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1844.490129649999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D213" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1843.440129649999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F214" t="n">
+        <v>87.1896</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1930.629729649999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9275</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9275</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9275</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1929.629729649999</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9295</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9325</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9325</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9295</v>
+      </c>
+      <c r="F216" t="n">
+        <v>94.37469254</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1835.255037109999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J216" t="n">
+        <v>9275</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1837.255037109999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>9325</v>
+      </c>
+      <c r="J217" t="n">
+        <v>9275</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1837.255037109999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J218" t="n">
+        <v>9275</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F219" t="n">
+        <v>150</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1837.255037109999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J219" t="n">
+        <v>9310</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1837.255037109999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J220" t="n">
+        <v>9310</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1836.255037109999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>9310</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9305</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9305</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1936.255037109999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.1251</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1921.129937109999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>9305</v>
+      </c>
+      <c r="J223" t="n">
+        <v>9305</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9335</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9335</v>
+      </c>
+      <c r="E224" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1921.129937109999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>9305</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6.6145</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1921.129937109999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J225" t="n">
+        <v>9305</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9325</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9325</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9325</v>
+      </c>
+      <c r="E226" t="n">
+        <v>9325</v>
+      </c>
+      <c r="F226" t="n">
+        <v>30.9105</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1952.040437109999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J226" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C227" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F227" t="n">
+        <v>103.5573</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1848.483137109999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>9325</v>
+      </c>
+      <c r="J227" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C202" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D202" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E202" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F202" t="n">
-        <v>2.8354</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2355.82462965</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J202" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>9275</v>
-      </c>
-      <c r="C203" t="n">
-        <v>9275</v>
-      </c>
-      <c r="D203" t="n">
-        <v>9275</v>
-      </c>
-      <c r="E203" t="n">
-        <v>9275</v>
-      </c>
-      <c r="F203" t="n">
-        <v>50.3055</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2305.51912965</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>9175</v>
-      </c>
-      <c r="J203" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C204" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D204" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E204" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F204" t="n">
-        <v>20</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2325.51912965</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C205" t="n">
-        <v>9245</v>
-      </c>
-      <c r="D205" t="n">
-        <v>9245</v>
-      </c>
-      <c r="E205" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F205" t="n">
-        <v>8.180400000000001</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2317.33872965</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>9175</v>
-      </c>
-      <c r="J205" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>9270</v>
-      </c>
-      <c r="C206" t="n">
-        <v>9270</v>
-      </c>
-      <c r="D206" t="n">
-        <v>9270</v>
-      </c>
-      <c r="E206" t="n">
-        <v>9270</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.1251</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2317.213629649999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>9245</v>
-      </c>
-      <c r="J206" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>9255</v>
-      </c>
-      <c r="C207" t="n">
-        <v>9295</v>
-      </c>
-      <c r="D207" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E207" t="n">
-        <v>9255</v>
-      </c>
-      <c r="F207" t="n">
-        <v>290.0496</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2027.164029649999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J207" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>9315</v>
-      </c>
-      <c r="C208" t="n">
-        <v>9315</v>
-      </c>
-      <c r="D208" t="n">
-        <v>9315</v>
-      </c>
-      <c r="E208" t="n">
-        <v>9315</v>
-      </c>
-      <c r="F208" t="n">
-        <v>15.5526</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2011.611429649999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>9295</v>
-      </c>
-      <c r="J208" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>9210</v>
-      </c>
-      <c r="C209" t="n">
-        <v>9210</v>
-      </c>
-      <c r="D209" t="n">
-        <v>9210</v>
-      </c>
-      <c r="E209" t="n">
-        <v>9210</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2013.611429649999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>9315</v>
-      </c>
-      <c r="J209" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C210" t="n">
-        <v>9265</v>
-      </c>
-      <c r="D210" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E210" t="n">
-        <v>9265</v>
-      </c>
-      <c r="F210" t="n">
-        <v>164.1128</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1849.498629649999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>9210</v>
-      </c>
-      <c r="J210" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>9270</v>
-      </c>
-      <c r="C211" t="n">
-        <v>9270</v>
-      </c>
-      <c r="D211" t="n">
-        <v>9270</v>
-      </c>
-      <c r="E211" t="n">
-        <v>9270</v>
-      </c>
-      <c r="F211" t="n">
-        <v>6.0085</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1843.490129649999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>9265</v>
-      </c>
-      <c r="J211" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>9210</v>
-      </c>
-      <c r="C212" t="n">
-        <v>9210</v>
-      </c>
-      <c r="D212" t="n">
-        <v>9210</v>
-      </c>
-      <c r="E212" t="n">
-        <v>9210</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1844.490129649999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J212" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C213" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D213" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E213" t="n">
-        <v>9300</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1843.440129649999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>9265</v>
-      </c>
-      <c r="C214" t="n">
-        <v>9270</v>
-      </c>
-      <c r="D214" t="n">
-        <v>9270</v>
-      </c>
-      <c r="E214" t="n">
-        <v>9265</v>
-      </c>
-      <c r="F214" t="n">
-        <v>87.1896</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1930.629729649999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>9275</v>
-      </c>
-      <c r="C215" t="n">
-        <v>9275</v>
-      </c>
-      <c r="D215" t="n">
-        <v>9275</v>
-      </c>
-      <c r="E215" t="n">
-        <v>9275</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1929.629729649999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>9295</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9325</v>
-      </c>
-      <c r="D216" t="n">
-        <v>9325</v>
-      </c>
-      <c r="E216" t="n">
-        <v>9295</v>
-      </c>
-      <c r="F216" t="n">
-        <v>94.37469254</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1835.255037109999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J216" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C217" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D217" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E217" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1837.255037109999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>9325</v>
-      </c>
-      <c r="J217" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>9320</v>
-      </c>
-      <c r="C218" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D218" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E218" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F218" t="n">
-        <v>100</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1837.255037109999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>9310</v>
-      </c>
-      <c r="J218" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F219" t="n">
-        <v>150</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1837.255037109999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="J219" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C220" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D220" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E220" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F220" t="n">
-        <v>100</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1837.255037109999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>9310</v>
-      </c>
-      <c r="J220" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>9320</v>
-      </c>
-      <c r="C221" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D221" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E221" t="n">
-        <v>9320</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1836.255037109999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>9310</v>
-      </c>
-      <c r="J221" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>9320</v>
-      </c>
-      <c r="C222" t="n">
-        <v>9305</v>
-      </c>
-      <c r="D222" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E222" t="n">
-        <v>9305</v>
-      </c>
-      <c r="F222" t="n">
-        <v>100</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1936.255037109999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J222" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C223" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D223" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E223" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F223" t="n">
-        <v>15.1251</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1921.129937109999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>9305</v>
-      </c>
-      <c r="J223" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>9335</v>
-      </c>
-      <c r="C224" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D224" t="n">
-        <v>9335</v>
-      </c>
-      <c r="E224" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F224" t="n">
-        <v>100</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1921.129937109999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J224" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C225" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D225" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E225" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F225" t="n">
-        <v>6.6145</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1921.129937109999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J225" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>9325</v>
-      </c>
-      <c r="C226" t="n">
-        <v>9325</v>
-      </c>
-      <c r="D226" t="n">
-        <v>9325</v>
-      </c>
-      <c r="E226" t="n">
-        <v>9325</v>
-      </c>
-      <c r="F226" t="n">
-        <v>30.9105</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1952.040437109999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J226" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C227" t="n">
-        <v>9390</v>
-      </c>
-      <c r="D227" t="n">
-        <v>9390</v>
-      </c>
-      <c r="E227" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F227" t="n">
-        <v>103.5573</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1848.483137109999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>9325</v>
-      </c>
-      <c r="J227" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8125,7 +7983,7 @@
         <v>9390</v>
       </c>
       <c r="J228" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8166,7 +8024,7 @@
         <v>9395</v>
       </c>
       <c r="J229" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8201,13 +8059,11 @@
         <v>-1817.558837109999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>9395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8248,7 +8104,7 @@
         <v>9400</v>
       </c>
       <c r="J231" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8283,13 +8139,11 @@
         <v>-1809.558837109999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>9455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8324,13 +8178,11 @@
         <v>-1665.115537109999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>9455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8369,7 +8221,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8408,7 +8260,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8447,7 +8299,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8486,7 +8338,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8525,7 +8377,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8564,7 +8416,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8603,7 +8455,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8642,7 +8494,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8681,7 +8533,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8720,7 +8572,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8759,7 +8611,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8798,7 +8650,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8837,7 +8689,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8876,7 +8728,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8915,7 +8767,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8954,7 +8806,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8993,7 +8845,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9032,7 +8884,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9071,7 +8923,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9110,7 +8962,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9149,7 +9001,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9188,7 +9040,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9227,7 +9079,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9266,7 +9118,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9305,7 +9157,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9344,7 +9196,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9383,7 +9235,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9422,7 +9274,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9461,7 +9313,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9500,7 +9352,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9539,7 +9391,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9578,7 +9430,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9617,7 +9469,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9652,19 +9504,19 @@
         <v>237.7997863600006</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>9250</v>
+        <v>9330</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
-        <v>1.025810810810811</v>
+        <v>1</v>
       </c>
       <c r="M267" t="inlineStr"/>
     </row>
@@ -9691,11 +9543,17 @@
         <v>280.8087863600006</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9582,17 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9621,17 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9660,17 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9699,17 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9738,17 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9777,17 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9816,17 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9855,17 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9894,17 @@
         <v>126.8599863600006</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +9933,17 @@
         <v>214.9666863600006</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +9972,17 @@
         <v>217.3380863600006</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10011,17 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10050,17 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10089,17 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10128,17 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10167,17 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10206,17 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10245,17 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10284,17 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10323,17 @@
         <v>-308.6100136399994</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10362,17 @@
         <v>-308.6100136399994</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10401,17 @@
         <v>-539.9608136399993</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10440,17 @@
         <v>-420.2610136399993</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10479,17 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10518,17 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10557,17 @@
         <v>-555.7976136399993</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10596,17 @@
         <v>-633.4590136399993</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10635,17 @@
         <v>-104.8701136399993</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10674,17 @@
         <v>-105.1077136399993</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10713,17 @@
         <v>-105.1077136399993</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10752,17 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10791,17 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10830,17 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10869,17 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10908,17 @@
         <v>-95.10771363999932</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10947,17 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +10986,17 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11025,17 @@
         <v>-78.10771363999932</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11064,17 @@
         <v>-53.38681363999932</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11103,17 @@
         <v>-35.38681363999932</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11142,17 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11181,17 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11220,17 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11259,17 @@
         <v>-118.7135136399993</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11298,17 @@
         <v>-114.7135136399993</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11337,17 @@
         <v>-128.6925136399993</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11376,17 @@
         <v>-98.69251363999933</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11415,17 @@
         <v>-113.6364136399993</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11454,17 @@
         <v>-699.5307136399994</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11493,17 @@
         <v>-684.6242136399993</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11532,17 @@
         <v>-685.6021136399993</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11571,17 @@
         <v>-685.1196136399993</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11610,17 @@
         <v>-744.7690136399993</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11476,14 +11652,20 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>9330</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
       <c r="M322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest BTG.xlsx
+++ b/BackTest/2019-10-28 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>1091.2770455</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1089.6992455</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1089.8382455</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1084.9519455</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1089.8296455</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1032.2036455</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>962.4577455</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>965.1115455</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>959.7061455</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>909.8346455000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>930.6096455000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>928.6096455000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>940.2356455</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>76.59257751000004</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25.60497751000004</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5.60382248999996</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27.04667751000004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>21.04667751000004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>42.64497751000004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>42.54497751000004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>37.41477751000004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -6853,11 +6853,17 @@
         <v>-2329.79152965</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>9260</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +6896,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6929,17 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>9250</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6968,17 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9250</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7007,17 @@
         <v>-2353.20842965</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>9250</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7046,17 @@
         <v>-2352.98922965</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>9250</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7085,17 @@
         <v>-2355.82462965</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9275</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7124,17 @@
         <v>-2305.51912965</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9175</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7163,17 @@
         <v>-2325.51912965</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>9275</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7202,17 @@
         <v>-2317.33872965</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>9175</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7241,17 @@
         <v>-2317.213629649999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>9245</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7280,17 @@
         <v>-2027.164029649999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>9270</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7319,17 @@
         <v>-2011.611429649999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>9295</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7358,17 @@
         <v>-2013.611429649999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>9315</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7397,17 @@
         <v>-1849.498629649999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>9210</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7436,17 @@
         <v>-1843.490129649999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>9265</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7475,17 @@
         <v>-1844.490129649999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>9270</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7514,17 @@
         <v>-1843.440129649999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>9210</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7553,17 @@
         <v>-1930.629729649999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>9300</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7596,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7518,10 +7634,12 @@
       <c r="I216" t="n">
         <v>9275</v>
       </c>
-      <c r="J216" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7555,12 +7673,10 @@
       <c r="I217" t="n">
         <v>9325</v>
       </c>
-      <c r="J217" t="n">
-        <v>9275</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7596,12 +7712,10 @@
       <c r="I218" t="n">
         <v>9310</v>
       </c>
-      <c r="J218" t="n">
-        <v>9275</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7637,10 +7751,12 @@
       <c r="I219" t="n">
         <v>9310</v>
       </c>
-      <c r="J219" t="n">
-        <v>9310</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7674,12 +7790,10 @@
       <c r="I220" t="n">
         <v>9310</v>
       </c>
-      <c r="J220" t="n">
-        <v>9310</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7710,15 +7824,15 @@
         <v>-1836.255037109999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
         <v>9310</v>
       </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7749,11 +7863,17 @@
         <v>-1936.255037109999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>9320</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7787,10 +7907,12 @@
       <c r="I223" t="n">
         <v>9305</v>
       </c>
-      <c r="J223" t="n">
-        <v>9305</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7819,15 +7941,15 @@
         <v>-1921.129937109999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9305</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7863,12 +7985,10 @@
       <c r="I225" t="n">
         <v>9330</v>
       </c>
-      <c r="J225" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -7904,10 +8024,12 @@
       <c r="I226" t="n">
         <v>9330</v>
       </c>
-      <c r="J226" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7941,12 +8063,10 @@
       <c r="I227" t="n">
         <v>9325</v>
       </c>
-      <c r="J227" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7982,9 +8102,7 @@
       <c r="I228" t="n">
         <v>9390</v>
       </c>
-      <c r="J228" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8023,9 +8141,7 @@
       <c r="I229" t="n">
         <v>9395</v>
       </c>
-      <c r="J229" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8059,12 +8175,12 @@
         <v>-1817.558837109999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>9395</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +8219,7 @@
       <c r="I231" t="n">
         <v>9400</v>
       </c>
-      <c r="J231" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,12 +8253,12 @@
         <v>-1809.558837109999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9455</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,12 +8292,12 @@
         <v>-1665.115537109999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>9455</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,12 +8331,12 @@
         <v>-1114.409837109999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>9490</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,12 +8370,12 @@
         <v>-1268.949737109999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>9585</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,12 +8409,12 @@
         <v>-611.2098821099994</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,12 +8485,12 @@
         <v>-816.4410821099993</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>9330</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>9450</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8527,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8601,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +8638,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +8712,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8860,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +8934,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +8971,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +9008,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +9045,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +9082,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +9119,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +9156,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +9193,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +9230,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,9 +9267,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +9304,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,9 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +9378,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,9 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9452,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,20 +9486,16 @@
         <v>-13.68753861999935</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>9330</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
@@ -9465,17 +9521,11 @@
         <v>243.7997863600006</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9504,17 +9554,11 @@
         <v>237.7997863600006</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9546,14 +9590,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9582,17 +9620,11 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9621,17 +9653,11 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9660,17 +9686,11 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9699,17 +9719,11 @@
         <v>361.8599863600006</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9738,17 +9752,11 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9777,17 +9785,11 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9816,17 +9818,11 @@
         <v>324.8599863600006</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9858,14 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9894,17 +9884,11 @@
         <v>126.8599863600006</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9936,14 +9920,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9975,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10011,17 +9983,11 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10050,17 +10016,11 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10089,17 +10049,11 @@
         <v>138.0419863600006</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10128,17 +10082,11 @@
         <v>71.90368636000061</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10170,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10209,14 +10151,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10248,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10287,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10326,14 +10250,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10365,14 +10283,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10404,14 +10316,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10443,14 +10349,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10482,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10521,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10560,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10599,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10638,14 +10514,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10677,14 +10547,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10716,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10755,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10794,14 +10646,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10833,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10872,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10911,14 +10745,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10950,14 +10778,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10989,14 +10811,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11028,14 +10844,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11067,14 +10877,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11106,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11145,14 +10943,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11184,14 +10976,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11223,14 +11009,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11262,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11301,14 +11075,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11340,14 +11108,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11379,14 +11141,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11418,14 +11174,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11457,14 +11207,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11496,14 +11240,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11535,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11574,14 +11306,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11613,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11652,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
